--- a/Plots/confmatrix_NN.xlsx
+++ b/Plots/confmatrix_NN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Inge\Documents\GitHub\TTT4275_Classification_Project\Plots\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ostep\Documents\GitHub\TTT4275_Classification_Project\Plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33774371-185E-4659-98C9-51AEFAD738E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61035DFF-5619-4ABB-8803-5ADA75F8C6D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5BB9F2A5-5F85-4EBE-9F0E-DF94768C017C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5BB9F2A5-5F85-4EBE-9F0E-DF94768C017C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,36 +34,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
-  <si>
-    <t>1.000e+00]</t>
-  </si>
-  <si>
-    <t>[2.000e+00</t>
-  </si>
-  <si>
-    <t>5.000e+00]</t>
-  </si>
-  <si>
-    <t>[1.000e+00</t>
-  </si>
-  <si>
-    <t>[0.000e+00</t>
-  </si>
-  <si>
-    <t>1.300e+01]</t>
-  </si>
-  <si>
-    <t>9.000e+00]</t>
-  </si>
-  <si>
-    <t>9.660e+02]</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>ER:  0.0369</t>
   </si>
   <si>
     <t>Runtime: 12575.04906320571899414062</t>
+  </si>
+  <si>
+    <t>p\t</t>
   </si>
 </sst>
 </file>
@@ -79,15 +58,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -95,19 +80,153 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFC6B9"/>
+      <color rgb="FF66CCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -119,57 +238,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>115762</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>96167</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E1A70E-6EF0-4232-B752-128B12B1618B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6705600" y="3429000"/>
-          <a:ext cx="10478962" cy="6573167"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -465,346 +535,819 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C54487B-A889-4956-9D31-E92E5D209DE3}">
-  <dimension ref="F5:O18"/>
+  <dimension ref="E4:X85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="8.77734375" customWidth="1"/>
+    <col min="5" max="5" width="3.6640625" customWidth="1"/>
+    <col min="6" max="15" width="5.109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F5" s="1">
+    <row r="4" spans="5:24" x14ac:dyDescent="0.3">
+      <c r="E4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0</v>
+      </c>
+      <c r="G4" s="13">
+        <v>1</v>
+      </c>
+      <c r="H4" s="13">
+        <v>2</v>
+      </c>
+      <c r="I4" s="13">
+        <v>3</v>
+      </c>
+      <c r="J4" s="13">
+        <v>4</v>
+      </c>
+      <c r="K4" s="13">
+        <v>5</v>
+      </c>
+      <c r="L4" s="13">
+        <v>6</v>
+      </c>
+      <c r="M4" s="13">
+        <v>7</v>
+      </c>
+      <c r="N4" s="13">
+        <v>8</v>
+      </c>
+      <c r="O4" s="14">
+        <v>9</v>
+      </c>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+    </row>
+    <row r="5" spans="5:24" x14ac:dyDescent="0.3">
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
         <v>973</v>
       </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
         <v>9</v>
       </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1">
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4">
         <v>2</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="4">
         <v>5</v>
       </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
         <v>9</v>
       </c>
-      <c r="O5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F6" s="1">
+      <c r="O5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="5:24" x14ac:dyDescent="0.3">
+      <c r="E6" s="15">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
         <v>2</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="7">
         <v>1129</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="8">
         <v>8</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="8">
         <v>2</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="8">
         <v>9</v>
       </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1">
+      <c r="K6" s="8">
+        <v>1</v>
+      </c>
+      <c r="L6" s="8">
         <v>2</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="8">
         <v>20</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="8">
         <v>5</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="R6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+    </row>
+    <row r="7" spans="5:24" x14ac:dyDescent="0.3">
+      <c r="E7" s="15">
+        <v>2</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="7">
         <v>987</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="8">
         <v>4</v>
       </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1">
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0</v>
+      </c>
+      <c r="L7" s="8">
+        <v>1</v>
+      </c>
+      <c r="M7" s="8">
         <v>4</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="8">
         <v>6</v>
       </c>
-      <c r="O7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="O7" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="5:24" x14ac:dyDescent="0.3">
+      <c r="E8" s="15">
+        <v>3</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
         <v>6</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="7">
         <v>965</v>
       </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
+      <c r="J8" s="8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="8">
         <v>17</v>
       </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
+      <c r="L8" s="8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
         <v>2</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="8">
         <v>21</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F9" t="s">
+      <c r="R8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+    </row>
+    <row r="9" spans="5:24" x14ac:dyDescent="0.3">
+      <c r="E9" s="15">
         <v>4</v>
       </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7">
         <v>937</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="8">
         <v>2</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="8">
         <v>2</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="8">
         <v>4</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="8">
         <v>4</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="5:24" x14ac:dyDescent="0.3">
+      <c r="E10" s="15">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F10" t="s">
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
+        <v>21</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
+        <v>848</v>
+      </c>
+      <c r="L10" s="8">
+        <v>5</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0</v>
+      </c>
+      <c r="N10" s="8">
+        <v>18</v>
+      </c>
+      <c r="O10" s="9">
+        <v>5</v>
+      </c>
+      <c r="R10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+    </row>
+    <row r="11" spans="5:24" x14ac:dyDescent="0.3">
+      <c r="E11" s="15">
+        <v>6</v>
+      </c>
+      <c r="F11" s="6">
+        <v>2</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+      <c r="H11" s="8">
+        <v>2</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8">
         <v>3</v>
       </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>21</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
-        <v>848</v>
-      </c>
-      <c r="L10" s="1">
+      <c r="K11" s="8">
+        <v>9</v>
+      </c>
+      <c r="L11" s="7">
+        <v>943</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0</v>
+      </c>
+      <c r="N11" s="8">
+        <v>3</v>
+      </c>
+      <c r="O11" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="5:24" x14ac:dyDescent="0.3">
+      <c r="E12" s="15">
+        <v>7</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>17</v>
+      </c>
+      <c r="I12" s="8">
+        <v>9</v>
+      </c>
+      <c r="J12" s="8">
+        <v>4</v>
+      </c>
+      <c r="K12" s="8">
+        <v>1</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0</v>
+      </c>
+      <c r="M12" s="7">
+        <v>989</v>
+      </c>
+      <c r="N12" s="8">
+        <v>4</v>
+      </c>
+      <c r="O12" s="9">
+        <v>9</v>
+      </c>
+      <c r="R12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+    </row>
+    <row r="13" spans="5:24" x14ac:dyDescent="0.3">
+      <c r="E13" s="15">
+        <v>8</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8">
+        <v>2</v>
+      </c>
+      <c r="I13" s="8">
+        <v>4</v>
+      </c>
+      <c r="J13" s="8">
+        <v>1</v>
+      </c>
+      <c r="K13" s="8">
         <v>5</v>
       </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-      <c r="N10" s="1">
-        <v>18</v>
-      </c>
-      <c r="O10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>2</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>3</v>
-      </c>
-      <c r="K11" s="1">
+      <c r="L13" s="8">
+        <v>0</v>
+      </c>
+      <c r="M13" s="8">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>894</v>
+      </c>
+      <c r="O13" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="5:24" x14ac:dyDescent="0.3">
+      <c r="E14" s="16">
         <v>9</v>
       </c>
-      <c r="L11" s="1">
-        <v>943</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1">
-        <v>3</v>
-      </c>
-      <c r="O11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>17</v>
-      </c>
-      <c r="I12" s="1">
+      <c r="F14" s="10">
+        <v>0</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0</v>
+      </c>
+      <c r="I14" s="11">
+        <v>4</v>
+      </c>
+      <c r="J14" s="11">
+        <v>27</v>
+      </c>
+      <c r="K14" s="11">
+        <v>7</v>
+      </c>
+      <c r="L14" s="11">
+        <v>0</v>
+      </c>
+      <c r="M14" s="11">
         <v>9</v>
       </c>
-      <c r="J12" s="1">
-        <v>4</v>
-      </c>
-      <c r="K12" s="1">
-        <v>1</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
-      <c r="M12" s="1">
-        <v>989</v>
-      </c>
-      <c r="N12" s="1">
-        <v>4</v>
-      </c>
-      <c r="O12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>2</v>
-      </c>
-      <c r="I13" s="1">
-        <v>4</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1</v>
-      </c>
-      <c r="K13" s="1">
-        <v>5</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1">
-        <v>894</v>
-      </c>
-      <c r="O13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>4</v>
-      </c>
-      <c r="J14" s="1">
-        <v>27</v>
-      </c>
-      <c r="K14" s="1">
-        <v>7</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0</v>
-      </c>
-      <c r="M14" s="1">
-        <v>9</v>
-      </c>
-      <c r="N14" s="1">
+      <c r="N14" s="11">
         <v>10</v>
       </c>
-      <c r="O14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F18" t="s">
-        <v>9</v>
-      </c>
+      <c r="O14" s="12">
+        <v>966</v>
+      </c>
+      <c r="R14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+    </row>
+    <row r="16" spans="5:24" x14ac:dyDescent="0.3">
+      <c r="R16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+    </row>
+    <row r="17" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>1</v>
+      </c>
+      <c r="R18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+    </row>
+    <row r="19" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="R19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+    </row>
+    <row r="20" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+    </row>
+    <row r="21" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="R21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+    </row>
+    <row r="22" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+    </row>
+    <row r="23" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="R23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+    </row>
+    <row r="24" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+    </row>
+    <row r="25" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="R25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+    </row>
+    <row r="26" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+    </row>
+    <row r="27" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="R27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+    </row>
+    <row r="28" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+    </row>
+    <row r="29" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="R29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+    </row>
+    <row r="30" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+    </row>
+    <row r="31" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="R31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+    </row>
+    <row r="32" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="R32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+    </row>
+    <row r="33" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+    </row>
+    <row r="34" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="R34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+    </row>
+    <row r="35" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+    </row>
+    <row r="36" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="R36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+    </row>
+    <row r="37" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+    </row>
+    <row r="38" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="R38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+    </row>
+    <row r="39" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="R39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+    </row>
+    <row r="40" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+    </row>
+    <row r="41" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="R41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+    </row>
+    <row r="42" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+    </row>
+    <row r="43" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="R43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+    </row>
+    <row r="44" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+    </row>
+    <row r="45" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="R45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+    </row>
+    <row r="46" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="R46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+    </row>
+    <row r="47" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+    </row>
+    <row r="48" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="R48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+    </row>
+    <row r="49" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+    </row>
+    <row r="50" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="R50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+    </row>
+    <row r="51" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+    </row>
+    <row r="52" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="R52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+    </row>
+    <row r="53" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="R53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+    </row>
+    <row r="54" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+    </row>
+    <row r="55" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="R55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+    </row>
+    <row r="56" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+    </row>
+    <row r="57" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="R57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+    </row>
+    <row r="58" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+    </row>
+    <row r="59" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="R59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+    </row>
+    <row r="60" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="R60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+    </row>
+    <row r="61" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+    </row>
+    <row r="62" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="R62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+    </row>
+    <row r="63" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+    </row>
+    <row r="64" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="R64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+    </row>
+    <row r="65" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+    </row>
+    <row r="66" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="R66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+    </row>
+    <row r="67" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="R67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+    </row>
+    <row r="68" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+    </row>
+    <row r="69" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="R69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+    </row>
+    <row r="70" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+    </row>
+    <row r="71" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="R71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+    </row>
+    <row r="72" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+    </row>
+    <row r="73" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="R73" s="1"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="1"/>
+    </row>
+    <row r="74" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="R74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+    </row>
+    <row r="75" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+    </row>
+    <row r="76" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="R76" s="1"/>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+    </row>
+    <row r="77" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+    </row>
+    <row r="78" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="R78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+    </row>
+    <row r="79" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+    </row>
+    <row r="80" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="R80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+    </row>
+    <row r="81" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+    </row>
+    <row r="82" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="R82" s="1"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+    </row>
+    <row r="83" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+    </row>
+    <row r="84" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="R84" s="1"/>
+      <c r="T84" s="1"/>
+      <c r="U84" s="1"/>
+      <c r="V84" s="1"/>
+    </row>
+    <row r="85" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F5:O14">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="30"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Plots/confmatrix_NN.xlsx
+++ b/Plots/confmatrix_NN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ostep\Documents\GitHub\TTT4275_Classification_Project\Plots\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Inge\Documents\GitHub\TTT4275_Classification_Project\Plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61035DFF-5619-4ABB-8803-5ADA75F8C6D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBB6596-4903-4EE7-B172-101160085BF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5BB9F2A5-5F85-4EBE-9F0E-DF94768C017C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5BB9F2A5-5F85-4EBE-9F0E-DF94768C017C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>ER:  0.0369</t>
   </si>
@@ -43,6 +43,33 @@
   </si>
   <si>
     <t>p\t</t>
+  </si>
+  <si>
+    <t>Error 0.0823</t>
+  </si>
+  <si>
+    <t>Runtime: 88.56426978111267089844</t>
+  </si>
+  <si>
+    <t>Error 0.1211</t>
+  </si>
+  <si>
+    <t>Error 0.101</t>
+  </si>
+  <si>
+    <t>Runtime: 94.84072780609130859375</t>
+  </si>
+  <si>
+    <t>clustering k = 3</t>
+  </si>
+  <si>
+    <t>Runtime: 89.74333930015563964844</t>
+  </si>
+  <si>
+    <t>clustering k =7</t>
+  </si>
+  <si>
+    <t>Clustering k=1</t>
   </si>
 </sst>
 </file>
@@ -72,7 +99,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -160,11 +187,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -213,6 +288,35 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -239,7 +343,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -535,25 +639,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C54487B-A889-4956-9D31-E92E5D209DE3}">
-  <dimension ref="E4:X85"/>
+  <dimension ref="E2:AX60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="101" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z28" sqref="Z28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="8.77734375" customWidth="1"/>
-    <col min="5" max="5" width="3.6640625" customWidth="1"/>
-    <col min="6" max="15" width="5.109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="6" max="15" width="5.140625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4" customWidth="1"/>
+    <col min="19" max="19" width="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="28" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="5:50" x14ac:dyDescent="0.25">
+      <c r="R2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="5:50" x14ac:dyDescent="0.25">
       <c r="E4" s="17" t="s">
         <v>2</v>
       </c>
@@ -587,11 +702,102 @@
       <c r="O4" s="14">
         <v>9</v>
       </c>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-    </row>
-    <row r="5" spans="5:24" x14ac:dyDescent="0.3">
+      <c r="R4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="22">
+        <v>0</v>
+      </c>
+      <c r="T4" s="22">
+        <v>1</v>
+      </c>
+      <c r="U4" s="22">
+        <v>2</v>
+      </c>
+      <c r="V4" s="22">
+        <v>3</v>
+      </c>
+      <c r="W4" s="22">
+        <v>4</v>
+      </c>
+      <c r="X4" s="22">
+        <v>5</v>
+      </c>
+      <c r="Y4" s="22">
+        <v>6</v>
+      </c>
+      <c r="Z4" s="22">
+        <v>7</v>
+      </c>
+      <c r="AA4" s="22">
+        <v>8</v>
+      </c>
+      <c r="AB4" s="23">
+        <v>9</v>
+      </c>
+      <c r="AD4" s="18">
+        <v>955</v>
+      </c>
+      <c r="AE4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="18">
+        <v>27</v>
+      </c>
+      <c r="AG4" s="18">
+        <v>3</v>
+      </c>
+      <c r="AH4" s="18">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="18">
+        <v>9</v>
+      </c>
+      <c r="AJ4" s="18">
+        <v>6</v>
+      </c>
+      <c r="AK4" s="18">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="18">
+        <v>18</v>
+      </c>
+      <c r="AM4" s="18">
+        <v>12</v>
+      </c>
+      <c r="AN4" s="18"/>
+      <c r="AO4" s="18">
+        <v>967</v>
+      </c>
+      <c r="AP4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="18">
+        <v>29</v>
+      </c>
+      <c r="AR4" s="18">
+        <v>3</v>
+      </c>
+      <c r="AS4" s="18">
+        <v>3</v>
+      </c>
+      <c r="AT4" s="18">
+        <v>7</v>
+      </c>
+      <c r="AU4" s="18">
+        <v>8</v>
+      </c>
+      <c r="AV4" s="18">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="18">
+        <v>18</v>
+      </c>
+      <c r="AX4" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="5:50" x14ac:dyDescent="0.25">
       <c r="E5" s="15">
         <v>0</v>
       </c>
@@ -625,8 +831,102 @@
       <c r="O5" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="5:24" x14ac:dyDescent="0.3">
+      <c r="R5" s="20">
+        <v>0</v>
+      </c>
+      <c r="S5" s="18">
+        <v>966</v>
+      </c>
+      <c r="T5" s="18">
+        <v>0</v>
+      </c>
+      <c r="U5" s="18">
+        <v>21</v>
+      </c>
+      <c r="V5" s="18">
+        <v>1</v>
+      </c>
+      <c r="W5" s="18">
+        <v>1</v>
+      </c>
+      <c r="X5" s="18">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="18">
+        <v>4</v>
+      </c>
+      <c r="Z5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="18">
+        <v>14</v>
+      </c>
+      <c r="AB5" s="24">
+        <v>7</v>
+      </c>
+      <c r="AD5" s="18">
+        <v>2</v>
+      </c>
+      <c r="AE5" s="18">
+        <v>1131</v>
+      </c>
+      <c r="AF5" s="18">
+        <v>176</v>
+      </c>
+      <c r="AG5" s="18">
+        <v>58</v>
+      </c>
+      <c r="AH5" s="18">
+        <v>50</v>
+      </c>
+      <c r="AI5" s="18">
+        <v>46</v>
+      </c>
+      <c r="AJ5" s="18">
+        <v>15</v>
+      </c>
+      <c r="AK5" s="18">
+        <v>92</v>
+      </c>
+      <c r="AL5" s="18">
+        <v>65</v>
+      </c>
+      <c r="AM5" s="18">
+        <v>26</v>
+      </c>
+      <c r="AN5" s="18"/>
+      <c r="AO5" s="18">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="18">
+        <v>1132</v>
+      </c>
+      <c r="AQ5" s="18">
+        <v>130</v>
+      </c>
+      <c r="AR5" s="18">
+        <v>37</v>
+      </c>
+      <c r="AS5" s="18">
+        <v>52</v>
+      </c>
+      <c r="AT5" s="18">
+        <v>31</v>
+      </c>
+      <c r="AU5" s="18">
+        <v>11</v>
+      </c>
+      <c r="AV5" s="18">
+        <v>71</v>
+      </c>
+      <c r="AW5" s="18">
+        <v>43</v>
+      </c>
+      <c r="AX5" s="18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="5:50" x14ac:dyDescent="0.25">
       <c r="E6" s="15">
         <v>1</v>
       </c>
@@ -660,14 +960,102 @@
       <c r="O6" s="9">
         <v>5</v>
       </c>
-      <c r="R6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-    </row>
-    <row r="7" spans="5:24" x14ac:dyDescent="0.3">
+      <c r="R6" s="20">
+        <v>1</v>
+      </c>
+      <c r="S6" s="19">
+        <v>1</v>
+      </c>
+      <c r="T6" s="19">
+        <v>1132</v>
+      </c>
+      <c r="U6" s="19">
+        <v>88</v>
+      </c>
+      <c r="V6" s="19">
+        <v>17</v>
+      </c>
+      <c r="W6" s="19">
+        <v>34</v>
+      </c>
+      <c r="X6" s="19">
+        <v>21</v>
+      </c>
+      <c r="Y6" s="19">
+        <v>9</v>
+      </c>
+      <c r="Z6" s="19">
+        <v>50</v>
+      </c>
+      <c r="AA6" s="19">
+        <v>28</v>
+      </c>
+      <c r="AB6" s="25">
+        <v>12</v>
+      </c>
+      <c r="AD6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="18">
+        <v>2</v>
+      </c>
+      <c r="AF6" s="18">
+        <v>753</v>
+      </c>
+      <c r="AG6" s="18">
+        <v>4</v>
+      </c>
+      <c r="AH6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="18">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="18">
+        <v>2</v>
+      </c>
+      <c r="AK6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="18">
+        <v>3</v>
+      </c>
+      <c r="AM6" s="18">
+        <v>2</v>
+      </c>
+      <c r="AN6" s="18"/>
+      <c r="AO6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="18">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="18">
+        <v>812</v>
+      </c>
+      <c r="AR6" s="18">
+        <v>5</v>
+      </c>
+      <c r="AS6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="18">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="18">
+        <v>2</v>
+      </c>
+      <c r="AV6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="18">
+        <v>6</v>
+      </c>
+      <c r="AX6" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="5:50" x14ac:dyDescent="0.25">
       <c r="E7" s="15">
         <v>2</v>
       </c>
@@ -701,8 +1089,102 @@
       <c r="O7" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="5:24" x14ac:dyDescent="0.3">
+      <c r="R7" s="20">
+        <v>2</v>
+      </c>
+      <c r="S7" s="19">
+        <v>1</v>
+      </c>
+      <c r="T7" s="19">
+        <v>1</v>
+      </c>
+      <c r="U7" s="19">
+        <v>864</v>
+      </c>
+      <c r="V7" s="19">
+        <v>1</v>
+      </c>
+      <c r="W7" s="19">
+        <v>0</v>
+      </c>
+      <c r="X7" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="19">
+        <v>4</v>
+      </c>
+      <c r="AB7" s="25">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="18">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="18">
+        <v>12</v>
+      </c>
+      <c r="AG7" s="18">
+        <v>893</v>
+      </c>
+      <c r="AH7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="18">
+        <v>40</v>
+      </c>
+      <c r="AJ7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="18">
+        <v>37</v>
+      </c>
+      <c r="AM7" s="18">
+        <v>7</v>
+      </c>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="18">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="18">
+        <v>9</v>
+      </c>
+      <c r="AR7" s="18">
+        <v>924</v>
+      </c>
+      <c r="AS7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="18">
+        <v>32</v>
+      </c>
+      <c r="AU7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="18">
+        <v>46</v>
+      </c>
+      <c r="AX7" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="5:50" x14ac:dyDescent="0.25">
       <c r="E8" s="15">
         <v>3</v>
       </c>
@@ -736,14 +1218,102 @@
       <c r="O8" s="9">
         <v>7</v>
       </c>
-      <c r="R8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-    </row>
-    <row r="9" spans="5:24" x14ac:dyDescent="0.3">
+      <c r="R8" s="20">
+        <v>3</v>
+      </c>
+      <c r="S8" s="19">
+        <v>0</v>
+      </c>
+      <c r="T8" s="19">
+        <v>1</v>
+      </c>
+      <c r="U8" s="19">
+        <v>8</v>
+      </c>
+      <c r="V8" s="19">
+        <v>933</v>
+      </c>
+      <c r="W8" s="19">
+        <v>0</v>
+      </c>
+      <c r="X8" s="19">
+        <v>22</v>
+      </c>
+      <c r="Y8" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="19">
+        <v>28</v>
+      </c>
+      <c r="AB8" s="25">
+        <v>6</v>
+      </c>
+      <c r="AD8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="18">
+        <v>6</v>
+      </c>
+      <c r="AG8" s="18">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="18">
+        <v>831</v>
+      </c>
+      <c r="AI8" s="18">
+        <v>7</v>
+      </c>
+      <c r="AJ8" s="18">
+        <v>7</v>
+      </c>
+      <c r="AK8" s="18">
+        <v>4</v>
+      </c>
+      <c r="AL8" s="18">
+        <v>13</v>
+      </c>
+      <c r="AM8" s="18">
+        <v>13</v>
+      </c>
+      <c r="AN8" s="18"/>
+      <c r="AO8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="18">
+        <v>2</v>
+      </c>
+      <c r="AR8" s="18">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="18">
+        <v>834</v>
+      </c>
+      <c r="AT8" s="18">
+        <v>8</v>
+      </c>
+      <c r="AU8" s="18">
+        <v>5</v>
+      </c>
+      <c r="AV8" s="18">
+        <v>7</v>
+      </c>
+      <c r="AW8" s="18">
+        <v>10</v>
+      </c>
+      <c r="AX8" s="18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="5:50" x14ac:dyDescent="0.25">
       <c r="E9" s="15">
         <v>4</v>
       </c>
@@ -777,8 +1347,102 @@
       <c r="O9" s="9">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="5:24" x14ac:dyDescent="0.3">
+      <c r="R9" s="20">
+        <v>4</v>
+      </c>
+      <c r="S9" s="19">
+        <v>0</v>
+      </c>
+      <c r="T9" s="19">
+        <v>0</v>
+      </c>
+      <c r="U9" s="19">
+        <v>3</v>
+      </c>
+      <c r="V9" s="19">
+        <v>0</v>
+      </c>
+      <c r="W9" s="19">
+        <v>861</v>
+      </c>
+      <c r="X9" s="19">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="19">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="19">
+        <v>6</v>
+      </c>
+      <c r="AA9" s="19">
+        <v>11</v>
+      </c>
+      <c r="AB9" s="25">
+        <v>21</v>
+      </c>
+      <c r="AD9" s="18">
+        <v>7</v>
+      </c>
+      <c r="AE9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="18">
+        <v>2</v>
+      </c>
+      <c r="AG9" s="18">
+        <v>14</v>
+      </c>
+      <c r="AH9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="18">
+        <v>745</v>
+      </c>
+      <c r="AJ9" s="18">
+        <v>9</v>
+      </c>
+      <c r="AK9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="18">
+        <v>39</v>
+      </c>
+      <c r="AM9" s="18">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="18"/>
+      <c r="AO9" s="18">
+        <v>4</v>
+      </c>
+      <c r="AP9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="18">
+        <v>1</v>
+      </c>
+      <c r="AR9" s="18">
+        <v>12</v>
+      </c>
+      <c r="AS9" s="18">
+        <v>1</v>
+      </c>
+      <c r="AT9" s="18">
+        <v>783</v>
+      </c>
+      <c r="AU9" s="18">
+        <v>4</v>
+      </c>
+      <c r="AV9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="18">
+        <v>33</v>
+      </c>
+      <c r="AX9" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="5:50" x14ac:dyDescent="0.25">
       <c r="E10" s="15">
         <v>5</v>
       </c>
@@ -812,14 +1476,102 @@
       <c r="O10" s="9">
         <v>5</v>
       </c>
-      <c r="R10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-    </row>
-    <row r="11" spans="5:24" x14ac:dyDescent="0.3">
+      <c r="R10" s="20">
+        <v>5</v>
+      </c>
+      <c r="S10" s="19">
+        <v>4</v>
+      </c>
+      <c r="T10" s="19">
+        <v>0</v>
+      </c>
+      <c r="U10" s="19">
+        <v>1</v>
+      </c>
+      <c r="V10" s="19">
+        <v>26</v>
+      </c>
+      <c r="W10" s="19">
+        <v>1</v>
+      </c>
+      <c r="X10" s="19">
+        <v>805</v>
+      </c>
+      <c r="Y10" s="19">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="19">
+        <v>43</v>
+      </c>
+      <c r="AB10" s="25">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="18">
+        <v>15</v>
+      </c>
+      <c r="AE10" s="18">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="18">
+        <v>8</v>
+      </c>
+      <c r="AG10" s="18">
+        <v>3</v>
+      </c>
+      <c r="AH10" s="18">
+        <v>13</v>
+      </c>
+      <c r="AI10" s="18">
+        <v>15</v>
+      </c>
+      <c r="AJ10" s="18">
+        <v>918</v>
+      </c>
+      <c r="AK10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="18">
+        <v>11</v>
+      </c>
+      <c r="AM10" s="18">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="18"/>
+      <c r="AO10" s="18">
+        <v>6</v>
+      </c>
+      <c r="AP10" s="18">
+        <v>1</v>
+      </c>
+      <c r="AQ10" s="18">
+        <v>7</v>
+      </c>
+      <c r="AR10" s="18">
+        <v>1</v>
+      </c>
+      <c r="AS10" s="18">
+        <v>12</v>
+      </c>
+      <c r="AT10" s="18">
+        <v>14</v>
+      </c>
+      <c r="AU10" s="18">
+        <v>928</v>
+      </c>
+      <c r="AV10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="18">
+        <v>6</v>
+      </c>
+      <c r="AX10" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="5:50" x14ac:dyDescent="0.25">
       <c r="E11" s="15">
         <v>6</v>
       </c>
@@ -853,8 +1605,102 @@
       <c r="O11" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="5:24" x14ac:dyDescent="0.3">
+      <c r="R11" s="20">
+        <v>6</v>
+      </c>
+      <c r="S11" s="19">
+        <v>7</v>
+      </c>
+      <c r="T11" s="19">
+        <v>1</v>
+      </c>
+      <c r="U11" s="19">
+        <v>6</v>
+      </c>
+      <c r="V11" s="19">
+        <v>1</v>
+      </c>
+      <c r="W11" s="19">
+        <v>11</v>
+      </c>
+      <c r="X11" s="19">
+        <v>17</v>
+      </c>
+      <c r="Y11" s="19">
+        <v>936</v>
+      </c>
+      <c r="Z11" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="19">
+        <v>7</v>
+      </c>
+      <c r="AB11" s="25">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="18">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="18">
+        <v>35</v>
+      </c>
+      <c r="AG11" s="18">
+        <v>16</v>
+      </c>
+      <c r="AH11" s="18">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="18">
+        <v>8</v>
+      </c>
+      <c r="AJ11" s="18">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="18">
+        <v>900</v>
+      </c>
+      <c r="AL11" s="18">
+        <v>12</v>
+      </c>
+      <c r="AM11" s="18">
+        <v>28</v>
+      </c>
+      <c r="AN11" s="18"/>
+      <c r="AO11" s="18">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="18">
+        <v>30</v>
+      </c>
+      <c r="AR11" s="18">
+        <v>11</v>
+      </c>
+      <c r="AS11" s="18">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="18">
+        <v>2</v>
+      </c>
+      <c r="AU11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="18">
+        <v>921</v>
+      </c>
+      <c r="AW11" s="18">
+        <v>15</v>
+      </c>
+      <c r="AX11" s="18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="5:50" x14ac:dyDescent="0.25">
       <c r="E12" s="15">
         <v>7</v>
       </c>
@@ -888,14 +1734,102 @@
       <c r="O12" s="9">
         <v>9</v>
       </c>
-      <c r="R12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-    </row>
-    <row r="13" spans="5:24" x14ac:dyDescent="0.3">
+      <c r="R12" s="20">
+        <v>7</v>
+      </c>
+      <c r="S12" s="19">
+        <v>1</v>
+      </c>
+      <c r="T12" s="19">
+        <v>0</v>
+      </c>
+      <c r="U12" s="19">
+        <v>31</v>
+      </c>
+      <c r="V12" s="19">
+        <v>13</v>
+      </c>
+      <c r="W12" s="19">
+        <v>5</v>
+      </c>
+      <c r="X12" s="19">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="19">
+        <v>945</v>
+      </c>
+      <c r="AA12" s="19">
+        <v>11</v>
+      </c>
+      <c r="AB12" s="25">
+        <v>30</v>
+      </c>
+      <c r="AD12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="18">
+        <v>12</v>
+      </c>
+      <c r="AG12" s="18">
+        <v>8</v>
+      </c>
+      <c r="AH12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="18">
+        <v>2</v>
+      </c>
+      <c r="AJ12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="18">
+        <v>746</v>
+      </c>
+      <c r="AM12" s="18">
+        <v>2</v>
+      </c>
+      <c r="AN12" s="18"/>
+      <c r="AO12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="18">
+        <v>11</v>
+      </c>
+      <c r="AR12" s="18">
+        <v>10</v>
+      </c>
+      <c r="AS12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="18">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="18">
+        <v>768</v>
+      </c>
+      <c r="AX12" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="5:50" x14ac:dyDescent="0.25">
       <c r="E13" s="15">
         <v>8</v>
       </c>
@@ -929,8 +1863,102 @@
       <c r="O13" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="5:24" x14ac:dyDescent="0.3">
+      <c r="R13" s="20">
+        <v>8</v>
+      </c>
+      <c r="S13" s="19">
+        <v>0</v>
+      </c>
+      <c r="T13" s="19">
+        <v>0</v>
+      </c>
+      <c r="U13" s="19">
+        <v>9</v>
+      </c>
+      <c r="V13" s="19">
+        <v>12</v>
+      </c>
+      <c r="W13" s="19">
+        <v>1</v>
+      </c>
+      <c r="X13" s="19">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="19">
+        <v>806</v>
+      </c>
+      <c r="AB13" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="18">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="18">
+        <v>10</v>
+      </c>
+      <c r="AH13" s="18">
+        <v>86</v>
+      </c>
+      <c r="AI13" s="18">
+        <v>19</v>
+      </c>
+      <c r="AJ13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="18">
+        <v>31</v>
+      </c>
+      <c r="AL13" s="18">
+        <v>30</v>
+      </c>
+      <c r="AM13" s="18">
+        <v>917</v>
+      </c>
+      <c r="AN13" s="18"/>
+      <c r="AO13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="18">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="18">
+        <v>6</v>
+      </c>
+      <c r="AS13" s="18">
+        <v>79</v>
+      </c>
+      <c r="AT13" s="18">
+        <v>13</v>
+      </c>
+      <c r="AU13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="18">
+        <v>28</v>
+      </c>
+      <c r="AW13" s="18">
+        <v>29</v>
+      </c>
+      <c r="AX13" s="18">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="14" spans="5:50" x14ac:dyDescent="0.25">
       <c r="E14" s="16">
         <v>9</v>
       </c>
@@ -964,380 +1992,332 @@
       <c r="O14" s="12">
         <v>966</v>
       </c>
-      <c r="R14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-    </row>
-    <row r="16" spans="5:24" x14ac:dyDescent="0.3">
+      <c r="R14" s="21">
+        <v>9</v>
+      </c>
+      <c r="S14" s="26">
+        <v>0</v>
+      </c>
+      <c r="T14" s="27">
+        <v>0</v>
+      </c>
+      <c r="U14" s="27">
+        <v>1</v>
+      </c>
+      <c r="V14" s="27">
+        <v>6</v>
+      </c>
+      <c r="W14" s="27">
+        <v>68</v>
+      </c>
+      <c r="X14" s="27">
+        <v>15</v>
+      </c>
+      <c r="Y14" s="27">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="27">
+        <v>26</v>
+      </c>
+      <c r="AA14" s="27">
+        <v>22</v>
+      </c>
+      <c r="AB14" s="28">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="15" spans="5:50" x14ac:dyDescent="0.25">
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+    </row>
+    <row r="16" spans="5:50" x14ac:dyDescent="0.25">
       <c r="R16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-    </row>
-    <row r="17" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AO16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="5:41" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="R17" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AD17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="5:41" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>1</v>
       </c>
-      <c r="R18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-    </row>
-    <row r="19" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="R18" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AD18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="5:41" x14ac:dyDescent="0.25">
       <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
       <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-    </row>
-    <row r="20" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="Q20" s="1"/>
+    </row>
+    <row r="20" spans="5:41" x14ac:dyDescent="0.25">
       <c r="R20" s="1"/>
-    </row>
-    <row r="21" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="T20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+    </row>
+    <row r="21" spans="5:41" x14ac:dyDescent="0.25">
       <c r="R21" s="1"/>
       <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-    </row>
-    <row r="22" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="Q22" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+    </row>
+    <row r="22" spans="5:41" x14ac:dyDescent="0.25">
       <c r="R22" s="1"/>
-    </row>
-    <row r="23" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="T22" s="1"/>
+    </row>
+    <row r="23" spans="5:41" x14ac:dyDescent="0.25">
+      <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-    </row>
-    <row r="24" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="Q24" s="1"/>
+    </row>
+    <row r="24" spans="5:41" x14ac:dyDescent="0.25">
       <c r="R24" s="1"/>
-    </row>
-    <row r="25" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="T24" s="1"/>
+    </row>
+    <row r="25" spans="5:41" x14ac:dyDescent="0.25">
       <c r="R25" s="1"/>
       <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-    </row>
-    <row r="26" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="Q26" s="1"/>
+    </row>
+    <row r="26" spans="5:41" x14ac:dyDescent="0.25">
       <c r="R26" s="1"/>
-    </row>
-    <row r="27" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+    </row>
+    <row r="27" spans="5:41" x14ac:dyDescent="0.25">
       <c r="R27" s="1"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
     </row>
-    <row r="28" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="Q28" s="1"/>
+    <row r="28" spans="5:41" x14ac:dyDescent="0.25">
       <c r="R28" s="1"/>
-    </row>
-    <row r="29" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+    </row>
+    <row r="29" spans="5:41" x14ac:dyDescent="0.25">
       <c r="R29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
     </row>
-    <row r="30" spans="5:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:41" x14ac:dyDescent="0.25">
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
     </row>
-    <row r="31" spans="5:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:41" x14ac:dyDescent="0.25">
+      <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-    </row>
-    <row r="32" spans="5:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="5:41" x14ac:dyDescent="0.25">
       <c r="R32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
     </row>
-    <row r="33" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
     </row>
-    <row r="34" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="17:22" x14ac:dyDescent="0.25">
       <c r="R34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
     </row>
-    <row r="35" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="Q35" s="1"/>
+    <row r="35" spans="17:22" x14ac:dyDescent="0.25">
       <c r="R35" s="1"/>
-    </row>
-    <row r="36" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+    </row>
+    <row r="36" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-    </row>
-    <row r="37" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="Q37" s="1"/>
+    </row>
+    <row r="37" spans="17:22" x14ac:dyDescent="0.25">
       <c r="R37" s="1"/>
-    </row>
-    <row r="38" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+    </row>
+    <row r="38" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-    </row>
-    <row r="39" spans="17:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="17:22" x14ac:dyDescent="0.25">
       <c r="R39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
     </row>
-    <row r="40" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
     </row>
-    <row r="41" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="17:22" x14ac:dyDescent="0.25">
       <c r="R41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
     </row>
-    <row r="42" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="Q42" s="1"/>
+    <row r="42" spans="17:22" x14ac:dyDescent="0.25">
       <c r="R42" s="1"/>
-    </row>
-    <row r="43" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+    </row>
+    <row r="43" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-    </row>
-    <row r="44" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="Q44" s="1"/>
+    </row>
+    <row r="44" spans="17:22" x14ac:dyDescent="0.25">
       <c r="R44" s="1"/>
-    </row>
-    <row r="45" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+    </row>
+    <row r="45" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
-    </row>
-    <row r="46" spans="17:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="17:22" x14ac:dyDescent="0.25">
       <c r="R46" s="1"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
     </row>
-    <row r="47" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
     </row>
-    <row r="48" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="17:22" x14ac:dyDescent="0.25">
       <c r="R48" s="1"/>
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
     </row>
-    <row r="49" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="Q49" s="1"/>
+    <row r="49" spans="17:22" x14ac:dyDescent="0.25">
       <c r="R49" s="1"/>
-    </row>
-    <row r="50" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+    </row>
+    <row r="50" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
-      <c r="T50" s="1"/>
-      <c r="U50" s="1"/>
-      <c r="V50" s="1"/>
-    </row>
-    <row r="51" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="Q51" s="1"/>
+    </row>
+    <row r="51" spans="17:22" x14ac:dyDescent="0.25">
       <c r="R51" s="1"/>
-    </row>
-    <row r="52" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+    </row>
+    <row r="52" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
-      <c r="T52" s="1"/>
-      <c r="U52" s="1"/>
-      <c r="V52" s="1"/>
-    </row>
-    <row r="53" spans="17:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="17:22" x14ac:dyDescent="0.25">
       <c r="R53" s="1"/>
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
       <c r="V53" s="1"/>
     </row>
-    <row r="54" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
     </row>
-    <row r="55" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="17:22" x14ac:dyDescent="0.25">
       <c r="R55" s="1"/>
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
       <c r="V55" s="1"/>
     </row>
-    <row r="56" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="56" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
     </row>
-    <row r="57" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="17:22" x14ac:dyDescent="0.25">
       <c r="R57" s="1"/>
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
       <c r="V57" s="1"/>
     </row>
-    <row r="58" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="58" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
     </row>
-    <row r="59" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="17:22" x14ac:dyDescent="0.25">
       <c r="R59" s="1"/>
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
     </row>
-    <row r="60" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="60" spans="17:22" x14ac:dyDescent="0.25">
+      <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
-      <c r="T60" s="1"/>
-      <c r="U60" s="1"/>
-      <c r="V60" s="1"/>
-    </row>
-    <row r="61" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="Q61" s="1"/>
-      <c r="R61" s="1"/>
-    </row>
-    <row r="62" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="R62" s="1"/>
-      <c r="T62" s="1"/>
-      <c r="U62" s="1"/>
-      <c r="V62" s="1"/>
-    </row>
-    <row r="63" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="Q63" s="1"/>
-      <c r="R63" s="1"/>
-    </row>
-    <row r="64" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="R64" s="1"/>
-      <c r="T64" s="1"/>
-      <c r="U64" s="1"/>
-      <c r="V64" s="1"/>
-    </row>
-    <row r="65" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="Q65" s="1"/>
-      <c r="R65" s="1"/>
-    </row>
-    <row r="66" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="R66" s="1"/>
-      <c r="T66" s="1"/>
-      <c r="U66" s="1"/>
-      <c r="V66" s="1"/>
-    </row>
-    <row r="67" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="R67" s="1"/>
-      <c r="T67" s="1"/>
-      <c r="U67" s="1"/>
-      <c r="V67" s="1"/>
-    </row>
-    <row r="68" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="Q68" s="1"/>
-      <c r="R68" s="1"/>
-    </row>
-    <row r="69" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="R69" s="1"/>
-      <c r="T69" s="1"/>
-      <c r="U69" s="1"/>
-      <c r="V69" s="1"/>
-    </row>
-    <row r="70" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="Q70" s="1"/>
-      <c r="R70" s="1"/>
-    </row>
-    <row r="71" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="R71" s="1"/>
-      <c r="T71" s="1"/>
-      <c r="U71" s="1"/>
-      <c r="V71" s="1"/>
-    </row>
-    <row r="72" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="Q72" s="1"/>
-      <c r="R72" s="1"/>
-    </row>
-    <row r="73" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="R73" s="1"/>
-      <c r="T73" s="1"/>
-      <c r="U73" s="1"/>
-      <c r="V73" s="1"/>
-    </row>
-    <row r="74" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="R74" s="1"/>
-      <c r="T74" s="1"/>
-      <c r="U74" s="1"/>
-      <c r="V74" s="1"/>
-    </row>
-    <row r="75" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="Q75" s="1"/>
-      <c r="R75" s="1"/>
-    </row>
-    <row r="76" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="R76" s="1"/>
-      <c r="T76" s="1"/>
-      <c r="U76" s="1"/>
-      <c r="V76" s="1"/>
-    </row>
-    <row r="77" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="Q77" s="1"/>
-      <c r="R77" s="1"/>
-    </row>
-    <row r="78" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="R78" s="1"/>
-      <c r="T78" s="1"/>
-      <c r="U78" s="1"/>
-      <c r="V78" s="1"/>
-    </row>
-    <row r="79" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="Q79" s="1"/>
-      <c r="R79" s="1"/>
-    </row>
-    <row r="80" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="R80" s="1"/>
-      <c r="T80" s="1"/>
-      <c r="U80" s="1"/>
-      <c r="V80" s="1"/>
-    </row>
-    <row r="81" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="Q81" s="1"/>
-      <c r="R81" s="1"/>
-    </row>
-    <row r="82" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="R82" s="1"/>
-      <c r="T82" s="1"/>
-      <c r="U82" s="1"/>
-      <c r="V82" s="1"/>
-    </row>
-    <row r="83" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="Q83" s="1"/>
-      <c r="R83" s="1"/>
-    </row>
-    <row r="84" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="R84" s="1"/>
-      <c r="T84" s="1"/>
-      <c r="U84" s="1"/>
-      <c r="V84" s="1"/>
-    </row>
-    <row r="85" spans="17:22" x14ac:dyDescent="0.3">
-      <c r="Q85" s="1"/>
-      <c r="R85" s="1"/>
-      <c r="S85" s="1"/>
+      <c r="S60" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F5:O14">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="30"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S5:AB14">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="1"/>

--- a/Plots/confmatrix_NN.xlsx
+++ b/Plots/confmatrix_NN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Inge\Documents\GitHub\TTT4275_Classification_Project\Plots\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ostep\Documents\GitHub\TTT4275_Classification_Project\Plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBB6596-4903-4EE7-B172-101160085BF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D2902E-571A-46F6-B8CF-446B85BA340E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5BB9F2A5-5F85-4EBE-9F0E-DF94768C017C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5BB9F2A5-5F85-4EBE-9F0E-DF94768C017C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>ER:  0.0369</t>
   </si>
@@ -239,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -290,7 +290,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -306,7 +305,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -317,6 +315,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -343,7 +351,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -639,36 +647,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C54487B-A889-4956-9D31-E92E5D209DE3}">
-  <dimension ref="E2:AX60"/>
+  <dimension ref="E2:BB60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="101" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z28" sqref="Z28"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" customWidth="1"/>
-    <col min="6" max="15" width="5.140625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4" customWidth="1"/>
-    <col min="19" max="19" width="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="28" width="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="3.6640625" customWidth="1"/>
+    <col min="6" max="15" width="5.109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="28" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.33203125" customWidth="1"/>
+    <col min="31" max="31" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="41" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="54" width="4.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:50" x14ac:dyDescent="0.25">
-      <c r="R2" t="s">
+    <row r="2" spans="5:54" x14ac:dyDescent="0.3">
+      <c r="Q2" t="s">
         <v>11</v>
       </c>
       <c r="AD2" t="s">
         <v>10</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AQ2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="5:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:54" x14ac:dyDescent="0.3">
       <c r="E4" s="17" t="s">
         <v>2</v>
       </c>
@@ -705,99 +722,105 @@
       <c r="R4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="22">
-        <v>0</v>
-      </c>
-      <c r="T4" s="22">
-        <v>1</v>
-      </c>
-      <c r="U4" s="22">
-        <v>2</v>
-      </c>
-      <c r="V4" s="22">
+      <c r="S4" s="21">
+        <v>0</v>
+      </c>
+      <c r="T4" s="21">
+        <v>1</v>
+      </c>
+      <c r="U4" s="21">
+        <v>2</v>
+      </c>
+      <c r="V4" s="21">
         <v>3</v>
       </c>
-      <c r="W4" s="22">
-        <v>4</v>
-      </c>
-      <c r="X4" s="22">
+      <c r="W4" s="21">
+        <v>4</v>
+      </c>
+      <c r="X4" s="21">
         <v>5</v>
       </c>
-      <c r="Y4" s="22">
+      <c r="Y4" s="21">
         <v>6</v>
       </c>
-      <c r="Z4" s="22">
+      <c r="Z4" s="21">
         <v>7</v>
       </c>
-      <c r="AA4" s="22">
+      <c r="AA4" s="21">
         <v>8</v>
       </c>
-      <c r="AB4" s="23">
+      <c r="AB4" s="22">
         <v>9</v>
       </c>
-      <c r="AD4" s="18">
-        <v>955</v>
-      </c>
-      <c r="AE4" s="18">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="18">
-        <v>27</v>
-      </c>
-      <c r="AG4" s="18">
+      <c r="AC4" s="27"/>
+      <c r="AE4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="21">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="21">
         <v>3</v>
       </c>
-      <c r="AH4" s="18">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="18">
+      <c r="AJ4" s="21">
+        <v>4</v>
+      </c>
+      <c r="AK4" s="21">
+        <v>5</v>
+      </c>
+      <c r="AL4" s="21">
+        <v>6</v>
+      </c>
+      <c r="AM4" s="21">
+        <v>7</v>
+      </c>
+      <c r="AN4" s="21">
+        <v>8</v>
+      </c>
+      <c r="AO4" s="22">
         <v>9</v>
       </c>
-      <c r="AJ4" s="18">
+      <c r="AR4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="21">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="21">
+        <v>2</v>
+      </c>
+      <c r="AV4" s="21">
+        <v>3</v>
+      </c>
+      <c r="AW4" s="21">
+        <v>4</v>
+      </c>
+      <c r="AX4" s="21">
+        <v>5</v>
+      </c>
+      <c r="AY4" s="21">
         <v>6</v>
       </c>
-      <c r="AK4" s="18">
-        <v>1</v>
-      </c>
-      <c r="AL4" s="18">
-        <v>18</v>
-      </c>
-      <c r="AM4" s="18">
-        <v>12</v>
-      </c>
-      <c r="AN4" s="18"/>
-      <c r="AO4" s="18">
-        <v>967</v>
-      </c>
-      <c r="AP4" s="18">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="18">
-        <v>29</v>
-      </c>
-      <c r="AR4" s="18">
-        <v>3</v>
-      </c>
-      <c r="AS4" s="18">
-        <v>3</v>
-      </c>
-      <c r="AT4" s="18">
+      <c r="AZ4" s="21">
         <v>7</v>
       </c>
-      <c r="AU4" s="18">
+      <c r="BA4" s="21">
         <v>8</v>
       </c>
-      <c r="AV4" s="18">
-        <v>1</v>
-      </c>
-      <c r="AW4" s="18">
-        <v>18</v>
-      </c>
-      <c r="AX4" s="18">
+      <c r="BB4" s="22">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="5:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:54" x14ac:dyDescent="0.3">
       <c r="E5" s="15">
         <v>0</v>
       </c>
@@ -831,7 +854,7 @@
       <c r="O5" s="5">
         <v>1</v>
       </c>
-      <c r="R5" s="20">
+      <c r="R5" s="19">
         <v>0</v>
       </c>
       <c r="S5" s="18">
@@ -861,72 +884,78 @@
       <c r="AA5" s="18">
         <v>14</v>
       </c>
-      <c r="AB5" s="24">
+      <c r="AB5" s="30">
         <v>7</v>
       </c>
-      <c r="AD5" s="18">
-        <v>2</v>
-      </c>
-      <c r="AE5" s="18">
-        <v>1131</v>
-      </c>
-      <c r="AF5" s="18">
-        <v>176</v>
-      </c>
-      <c r="AG5" s="18">
-        <v>58</v>
-      </c>
-      <c r="AH5" s="18">
-        <v>50</v>
-      </c>
-      <c r="AI5" s="18">
-        <v>46</v>
-      </c>
-      <c r="AJ5" s="18">
-        <v>15</v>
-      </c>
-      <c r="AK5" s="18">
-        <v>92</v>
-      </c>
-      <c r="AL5" s="18">
-        <v>65</v>
-      </c>
-      <c r="AM5" s="18">
-        <v>26</v>
-      </c>
-      <c r="AN5" s="18"/>
-      <c r="AO5" s="18">
-        <v>1</v>
-      </c>
-      <c r="AP5" s="18">
-        <v>1132</v>
-      </c>
-      <c r="AQ5" s="18">
-        <v>130</v>
-      </c>
-      <c r="AR5" s="18">
-        <v>37</v>
-      </c>
-      <c r="AS5" s="18">
-        <v>52</v>
-      </c>
-      <c r="AT5" s="18">
-        <v>31</v>
-      </c>
-      <c r="AU5" s="18">
-        <v>11</v>
-      </c>
-      <c r="AV5" s="18">
-        <v>71</v>
-      </c>
-      <c r="AW5" s="18">
-        <v>43</v>
-      </c>
-      <c r="AX5" s="18">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="5:50" x14ac:dyDescent="0.25">
+      <c r="AC5" s="28"/>
+      <c r="AE5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="29">
+        <v>955</v>
+      </c>
+      <c r="AG5" s="29">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="29">
+        <v>27</v>
+      </c>
+      <c r="AI5" s="29">
+        <v>3</v>
+      </c>
+      <c r="AJ5" s="29">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="29">
+        <v>9</v>
+      </c>
+      <c r="AL5" s="29">
+        <v>6</v>
+      </c>
+      <c r="AM5" s="29">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="29">
+        <v>18</v>
+      </c>
+      <c r="AO5" s="23">
+        <v>12</v>
+      </c>
+      <c r="AR5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="29">
+        <v>967</v>
+      </c>
+      <c r="AT5" s="29">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="29">
+        <v>29</v>
+      </c>
+      <c r="AV5" s="29">
+        <v>3</v>
+      </c>
+      <c r="AW5" s="29">
+        <v>3</v>
+      </c>
+      <c r="AX5" s="29">
+        <v>7</v>
+      </c>
+      <c r="AY5" s="29">
+        <v>8</v>
+      </c>
+      <c r="AZ5" s="29">
+        <v>1</v>
+      </c>
+      <c r="BA5" s="29">
+        <v>18</v>
+      </c>
+      <c r="BB5" s="23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="5:54" x14ac:dyDescent="0.3">
       <c r="E6" s="15">
         <v>1</v>
       </c>
@@ -960,102 +989,108 @@
       <c r="O6" s="9">
         <v>5</v>
       </c>
-      <c r="R6" s="20">
-        <v>1</v>
-      </c>
-      <c r="S6" s="19">
-        <v>1</v>
-      </c>
-      <c r="T6" s="19">
+      <c r="R6" s="19">
+        <v>1</v>
+      </c>
+      <c r="S6" s="18">
+        <v>1</v>
+      </c>
+      <c r="T6" s="18">
         <v>1132</v>
       </c>
-      <c r="U6" s="19">
+      <c r="U6" s="18">
         <v>88</v>
       </c>
-      <c r="V6" s="19">
+      <c r="V6" s="18">
         <v>17</v>
       </c>
-      <c r="W6" s="19">
+      <c r="W6" s="18">
         <v>34</v>
       </c>
-      <c r="X6" s="19">
+      <c r="X6" s="18">
         <v>21</v>
       </c>
-      <c r="Y6" s="19">
+      <c r="Y6" s="18">
         <v>9</v>
       </c>
-      <c r="Z6" s="19">
+      <c r="Z6" s="18">
         <v>50</v>
       </c>
-      <c r="AA6" s="19">
+      <c r="AA6" s="18">
         <v>28</v>
       </c>
-      <c r="AB6" s="25">
+      <c r="AB6" s="23">
         <v>12</v>
       </c>
-      <c r="AD6" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="18">
-        <v>2</v>
-      </c>
-      <c r="AF6" s="18">
-        <v>753</v>
-      </c>
-      <c r="AG6" s="18">
-        <v>4</v>
-      </c>
-      <c r="AH6" s="18">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="18">
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="18">
-        <v>2</v>
-      </c>
-      <c r="AK6" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="18">
-        <v>3</v>
-      </c>
-      <c r="AM6" s="18">
-        <v>2</v>
-      </c>
-      <c r="AN6" s="18"/>
-      <c r="AO6" s="18">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="18">
-        <v>1</v>
-      </c>
-      <c r="AQ6" s="18">
-        <v>812</v>
-      </c>
-      <c r="AR6" s="18">
-        <v>5</v>
-      </c>
-      <c r="AS6" s="18">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="18">
-        <v>1</v>
-      </c>
-      <c r="AU6" s="18">
-        <v>2</v>
-      </c>
-      <c r="AV6" s="18">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="18">
-        <v>6</v>
-      </c>
-      <c r="AX6" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="5:50" x14ac:dyDescent="0.25">
+      <c r="AC6" s="29"/>
+      <c r="AE6" s="19">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="29">
+        <v>2</v>
+      </c>
+      <c r="AG6" s="29">
+        <v>1131</v>
+      </c>
+      <c r="AH6" s="29">
+        <v>176</v>
+      </c>
+      <c r="AI6" s="29">
+        <v>58</v>
+      </c>
+      <c r="AJ6" s="29">
+        <v>50</v>
+      </c>
+      <c r="AK6" s="29">
+        <v>46</v>
+      </c>
+      <c r="AL6" s="29">
+        <v>15</v>
+      </c>
+      <c r="AM6" s="29">
+        <v>92</v>
+      </c>
+      <c r="AN6" s="29">
+        <v>65</v>
+      </c>
+      <c r="AO6" s="23">
+        <v>26</v>
+      </c>
+      <c r="AR6" s="19">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="29">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="29">
+        <v>1132</v>
+      </c>
+      <c r="AU6" s="29">
+        <v>130</v>
+      </c>
+      <c r="AV6" s="29">
+        <v>37</v>
+      </c>
+      <c r="AW6" s="29">
+        <v>52</v>
+      </c>
+      <c r="AX6" s="29">
+        <v>31</v>
+      </c>
+      <c r="AY6" s="29">
+        <v>11</v>
+      </c>
+      <c r="AZ6" s="29">
+        <v>71</v>
+      </c>
+      <c r="BA6" s="29">
+        <v>43</v>
+      </c>
+      <c r="BB6" s="23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="5:54" x14ac:dyDescent="0.3">
       <c r="E7" s="15">
         <v>2</v>
       </c>
@@ -1089,102 +1124,108 @@
       <c r="O7" s="9">
         <v>1</v>
       </c>
-      <c r="R7" s="20">
-        <v>2</v>
-      </c>
-      <c r="S7" s="19">
-        <v>1</v>
-      </c>
-      <c r="T7" s="19">
-        <v>1</v>
-      </c>
-      <c r="U7" s="19">
+      <c r="R7" s="19">
+        <v>2</v>
+      </c>
+      <c r="S7" s="18">
+        <v>1</v>
+      </c>
+      <c r="T7" s="18">
+        <v>1</v>
+      </c>
+      <c r="U7" s="18">
         <v>864</v>
       </c>
-      <c r="V7" s="19">
-        <v>1</v>
-      </c>
-      <c r="W7" s="19">
-        <v>0</v>
-      </c>
-      <c r="X7" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="19">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="19">
-        <v>4</v>
-      </c>
-      <c r="AB7" s="25">
-        <v>2</v>
-      </c>
-      <c r="AD7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="18">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="18">
-        <v>12</v>
-      </c>
-      <c r="AG7" s="18">
-        <v>893</v>
-      </c>
-      <c r="AH7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="18">
-        <v>40</v>
-      </c>
-      <c r="AJ7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="18">
-        <v>37</v>
-      </c>
-      <c r="AM7" s="18">
-        <v>7</v>
-      </c>
-      <c r="AN7" s="18"/>
-      <c r="AO7" s="18">
-        <v>1</v>
-      </c>
-      <c r="AP7" s="18">
-        <v>1</v>
-      </c>
-      <c r="AQ7" s="18">
-        <v>9</v>
-      </c>
-      <c r="AR7" s="18">
-        <v>924</v>
-      </c>
-      <c r="AS7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="18">
-        <v>32</v>
-      </c>
-      <c r="AU7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="18">
-        <v>46</v>
-      </c>
-      <c r="AX7" s="18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="5:50" x14ac:dyDescent="0.25">
+      <c r="V7" s="18">
+        <v>1</v>
+      </c>
+      <c r="W7" s="18">
+        <v>0</v>
+      </c>
+      <c r="X7" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="18">
+        <v>4</v>
+      </c>
+      <c r="AB7" s="23">
+        <v>2</v>
+      </c>
+      <c r="AC7" s="29"/>
+      <c r="AE7" s="19">
+        <v>2</v>
+      </c>
+      <c r="AF7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="29">
+        <v>2</v>
+      </c>
+      <c r="AH7" s="29">
+        <v>753</v>
+      </c>
+      <c r="AI7" s="29">
+        <v>4</v>
+      </c>
+      <c r="AJ7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="29">
+        <v>2</v>
+      </c>
+      <c r="AM7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="29">
+        <v>3</v>
+      </c>
+      <c r="AO7" s="23">
+        <v>2</v>
+      </c>
+      <c r="AR7" s="19">
+        <v>2</v>
+      </c>
+      <c r="AS7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="29">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="29">
+        <v>812</v>
+      </c>
+      <c r="AV7" s="29">
+        <v>5</v>
+      </c>
+      <c r="AW7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="29">
+        <v>1</v>
+      </c>
+      <c r="AY7" s="29">
+        <v>2</v>
+      </c>
+      <c r="AZ7" s="29">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="29">
+        <v>6</v>
+      </c>
+      <c r="BB7" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="5:54" x14ac:dyDescent="0.3">
       <c r="E8" s="15">
         <v>3</v>
       </c>
@@ -1218,102 +1259,108 @@
       <c r="O8" s="9">
         <v>7</v>
       </c>
-      <c r="R8" s="20">
+      <c r="R8" s="19">
         <v>3</v>
       </c>
-      <c r="S8" s="19">
-        <v>0</v>
-      </c>
-      <c r="T8" s="19">
-        <v>1</v>
-      </c>
-      <c r="U8" s="19">
+      <c r="S8" s="18">
+        <v>0</v>
+      </c>
+      <c r="T8" s="18">
+        <v>1</v>
+      </c>
+      <c r="U8" s="18">
         <v>8</v>
       </c>
-      <c r="V8" s="19">
+      <c r="V8" s="18">
         <v>933</v>
       </c>
-      <c r="W8" s="19">
-        <v>0</v>
-      </c>
-      <c r="X8" s="19">
+      <c r="W8" s="18">
+        <v>0</v>
+      </c>
+      <c r="X8" s="18">
         <v>22</v>
       </c>
-      <c r="Y8" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="19">
+      <c r="Y8" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="18">
         <v>28</v>
       </c>
-      <c r="AB8" s="25">
+      <c r="AB8" s="23">
         <v>6</v>
       </c>
-      <c r="AD8" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="18">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="18">
-        <v>6</v>
-      </c>
-      <c r="AG8" s="18">
-        <v>1</v>
-      </c>
-      <c r="AH8" s="18">
-        <v>831</v>
-      </c>
-      <c r="AI8" s="18">
+      <c r="AC8" s="29"/>
+      <c r="AE8" s="19">
+        <v>3</v>
+      </c>
+      <c r="AF8" s="29">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="29">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="29">
+        <v>12</v>
+      </c>
+      <c r="AI8" s="29">
+        <v>893</v>
+      </c>
+      <c r="AJ8" s="29">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="29">
+        <v>40</v>
+      </c>
+      <c r="AL8" s="29">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="29">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="29">
+        <v>37</v>
+      </c>
+      <c r="AO8" s="23">
         <v>7</v>
       </c>
-      <c r="AJ8" s="18">
+      <c r="AR8" s="19">
+        <v>3</v>
+      </c>
+      <c r="AS8" s="29">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="29">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="29">
+        <v>9</v>
+      </c>
+      <c r="AV8" s="29">
+        <v>924</v>
+      </c>
+      <c r="AW8" s="29">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="29">
+        <v>32</v>
+      </c>
+      <c r="AY8" s="29">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="29">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="29">
+        <v>46</v>
+      </c>
+      <c r="BB8" s="23">
         <v>7</v>
       </c>
-      <c r="AK8" s="18">
-        <v>4</v>
-      </c>
-      <c r="AL8" s="18">
-        <v>13</v>
-      </c>
-      <c r="AM8" s="18">
-        <v>13</v>
-      </c>
-      <c r="AN8" s="18"/>
-      <c r="AO8" s="18">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="18">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="18">
-        <v>2</v>
-      </c>
-      <c r="AR8" s="18">
-        <v>1</v>
-      </c>
-      <c r="AS8" s="18">
-        <v>834</v>
-      </c>
-      <c r="AT8" s="18">
-        <v>8</v>
-      </c>
-      <c r="AU8" s="18">
-        <v>5</v>
-      </c>
-      <c r="AV8" s="18">
-        <v>7</v>
-      </c>
-      <c r="AW8" s="18">
-        <v>10</v>
-      </c>
-      <c r="AX8" s="18">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="5:50" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="5:54" x14ac:dyDescent="0.3">
       <c r="E9" s="15">
         <v>4</v>
       </c>
@@ -1347,102 +1394,108 @@
       <c r="O9" s="9">
         <v>13</v>
       </c>
-      <c r="R9" s="20">
-        <v>4</v>
-      </c>
-      <c r="S9" s="19">
-        <v>0</v>
-      </c>
-      <c r="T9" s="19">
-        <v>0</v>
-      </c>
-      <c r="U9" s="19">
+      <c r="R9" s="19">
+        <v>4</v>
+      </c>
+      <c r="S9" s="18">
+        <v>0</v>
+      </c>
+      <c r="T9" s="18">
+        <v>0</v>
+      </c>
+      <c r="U9" s="18">
         <v>3</v>
       </c>
-      <c r="V9" s="19">
-        <v>0</v>
-      </c>
-      <c r="W9" s="19">
+      <c r="V9" s="18">
+        <v>0</v>
+      </c>
+      <c r="W9" s="18">
         <v>861</v>
       </c>
-      <c r="X9" s="19">
-        <v>2</v>
-      </c>
-      <c r="Y9" s="19">
-        <v>4</v>
-      </c>
-      <c r="Z9" s="19">
+      <c r="X9" s="18">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="18">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="18">
         <v>6</v>
       </c>
-      <c r="AA9" s="19">
+      <c r="AA9" s="18">
         <v>11</v>
       </c>
-      <c r="AB9" s="25">
+      <c r="AB9" s="23">
         <v>21</v>
       </c>
-      <c r="AD9" s="18">
+      <c r="AC9" s="29"/>
+      <c r="AE9" s="19">
+        <v>4</v>
+      </c>
+      <c r="AF9" s="29">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="29">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="29">
+        <v>6</v>
+      </c>
+      <c r="AI9" s="29">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="29">
+        <v>831</v>
+      </c>
+      <c r="AK9" s="29">
         <v>7</v>
       </c>
-      <c r="AE9" s="18">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="18">
-        <v>2</v>
-      </c>
-      <c r="AG9" s="18">
-        <v>14</v>
-      </c>
-      <c r="AH9" s="18">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="18">
-        <v>745</v>
-      </c>
-      <c r="AJ9" s="18">
-        <v>9</v>
-      </c>
-      <c r="AK9" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="18">
-        <v>39</v>
-      </c>
-      <c r="AM9" s="18">
-        <v>1</v>
-      </c>
-      <c r="AN9" s="18"/>
-      <c r="AO9" s="18">
-        <v>4</v>
-      </c>
-      <c r="AP9" s="18">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="18">
-        <v>1</v>
-      </c>
-      <c r="AR9" s="18">
-        <v>12</v>
-      </c>
-      <c r="AS9" s="18">
-        <v>1</v>
-      </c>
-      <c r="AT9" s="18">
-        <v>783</v>
-      </c>
-      <c r="AU9" s="18">
-        <v>4</v>
-      </c>
-      <c r="AV9" s="18">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="18">
-        <v>33</v>
-      </c>
-      <c r="AX9" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="5:50" x14ac:dyDescent="0.25">
+      <c r="AL9" s="29">
+        <v>7</v>
+      </c>
+      <c r="AM9" s="29">
+        <v>4</v>
+      </c>
+      <c r="AN9" s="29">
+        <v>13</v>
+      </c>
+      <c r="AO9" s="23">
+        <v>13</v>
+      </c>
+      <c r="AR9" s="19">
+        <v>4</v>
+      </c>
+      <c r="AS9" s="29">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="29">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="29">
+        <v>2</v>
+      </c>
+      <c r="AV9" s="29">
+        <v>1</v>
+      </c>
+      <c r="AW9" s="29">
+        <v>834</v>
+      </c>
+      <c r="AX9" s="29">
+        <v>8</v>
+      </c>
+      <c r="AY9" s="29">
+        <v>5</v>
+      </c>
+      <c r="AZ9" s="29">
+        <v>7</v>
+      </c>
+      <c r="BA9" s="29">
+        <v>10</v>
+      </c>
+      <c r="BB9" s="23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="5:54" x14ac:dyDescent="0.3">
       <c r="E10" s="15">
         <v>5</v>
       </c>
@@ -1476,102 +1529,108 @@
       <c r="O10" s="9">
         <v>5</v>
       </c>
-      <c r="R10" s="20">
+      <c r="R10" s="19">
         <v>5</v>
       </c>
-      <c r="S10" s="19">
-        <v>4</v>
-      </c>
-      <c r="T10" s="19">
-        <v>0</v>
-      </c>
-      <c r="U10" s="19">
-        <v>1</v>
-      </c>
-      <c r="V10" s="19">
+      <c r="S10" s="18">
+        <v>4</v>
+      </c>
+      <c r="T10" s="18">
+        <v>0</v>
+      </c>
+      <c r="U10" s="18">
+        <v>1</v>
+      </c>
+      <c r="V10" s="18">
         <v>26</v>
       </c>
-      <c r="W10" s="19">
-        <v>1</v>
-      </c>
-      <c r="X10" s="19">
+      <c r="W10" s="18">
+        <v>1</v>
+      </c>
+      <c r="X10" s="18">
         <v>805</v>
       </c>
-      <c r="Y10" s="19">
+      <c r="Y10" s="18">
         <v>3</v>
       </c>
-      <c r="Z10" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="19">
+      <c r="Z10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="18">
         <v>43</v>
       </c>
-      <c r="AB10" s="25">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="18">
-        <v>15</v>
-      </c>
-      <c r="AE10" s="18">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="18">
-        <v>8</v>
-      </c>
-      <c r="AG10" s="18">
-        <v>3</v>
-      </c>
-      <c r="AH10" s="18">
-        <v>13</v>
-      </c>
-      <c r="AI10" s="18">
-        <v>15</v>
-      </c>
-      <c r="AJ10" s="18">
-        <v>918</v>
-      </c>
-      <c r="AK10" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="18">
-        <v>11</v>
-      </c>
-      <c r="AM10" s="18">
-        <v>1</v>
-      </c>
-      <c r="AN10" s="18"/>
-      <c r="AO10" s="18">
-        <v>6</v>
-      </c>
-      <c r="AP10" s="18">
-        <v>1</v>
-      </c>
-      <c r="AQ10" s="18">
+      <c r="AB10" s="23">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="29"/>
+      <c r="AE10" s="19">
+        <v>5</v>
+      </c>
+      <c r="AF10" s="29">
         <v>7</v>
       </c>
-      <c r="AR10" s="18">
-        <v>1</v>
-      </c>
-      <c r="AS10" s="18">
+      <c r="AG10" s="29">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="29">
+        <v>2</v>
+      </c>
+      <c r="AI10" s="29">
+        <v>14</v>
+      </c>
+      <c r="AJ10" s="29">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="29">
+        <v>745</v>
+      </c>
+      <c r="AL10" s="29">
+        <v>9</v>
+      </c>
+      <c r="AM10" s="29">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="29">
+        <v>39</v>
+      </c>
+      <c r="AO10" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR10" s="19">
+        <v>5</v>
+      </c>
+      <c r="AS10" s="29">
+        <v>4</v>
+      </c>
+      <c r="AT10" s="29">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="29">
+        <v>1</v>
+      </c>
+      <c r="AV10" s="29">
         <v>12</v>
       </c>
-      <c r="AT10" s="18">
-        <v>14</v>
-      </c>
-      <c r="AU10" s="18">
-        <v>928</v>
-      </c>
-      <c r="AV10" s="18">
-        <v>0</v>
-      </c>
-      <c r="AW10" s="18">
-        <v>6</v>
-      </c>
-      <c r="AX10" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="5:50" x14ac:dyDescent="0.25">
+      <c r="AW10" s="29">
+        <v>1</v>
+      </c>
+      <c r="AX10" s="29">
+        <v>783</v>
+      </c>
+      <c r="AY10" s="29">
+        <v>4</v>
+      </c>
+      <c r="AZ10" s="29">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="29">
+        <v>33</v>
+      </c>
+      <c r="BB10" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="5:54" x14ac:dyDescent="0.3">
       <c r="E11" s="15">
         <v>6</v>
       </c>
@@ -1605,102 +1664,108 @@
       <c r="O11" s="9">
         <v>1</v>
       </c>
-      <c r="R11" s="20">
+      <c r="R11" s="19">
         <v>6</v>
       </c>
-      <c r="S11" s="19">
+      <c r="S11" s="18">
         <v>7</v>
       </c>
-      <c r="T11" s="19">
-        <v>1</v>
-      </c>
-      <c r="U11" s="19">
+      <c r="T11" s="18">
+        <v>1</v>
+      </c>
+      <c r="U11" s="18">
         <v>6</v>
       </c>
-      <c r="V11" s="19">
-        <v>1</v>
-      </c>
-      <c r="W11" s="19">
+      <c r="V11" s="18">
+        <v>1</v>
+      </c>
+      <c r="W11" s="18">
         <v>11</v>
       </c>
-      <c r="X11" s="19">
+      <c r="X11" s="18">
         <v>17</v>
       </c>
-      <c r="Y11" s="19">
+      <c r="Y11" s="18">
         <v>936</v>
       </c>
-      <c r="Z11" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="19">
+      <c r="Z11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="18">
         <v>7</v>
       </c>
-      <c r="AB11" s="25">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="18">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="18">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="18">
-        <v>35</v>
-      </c>
-      <c r="AG11" s="18">
-        <v>16</v>
-      </c>
-      <c r="AH11" s="18">
-        <v>1</v>
-      </c>
-      <c r="AI11" s="18">
+      <c r="AB11" s="23">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="29"/>
+      <c r="AE11" s="19">
+        <v>6</v>
+      </c>
+      <c r="AF11" s="29">
+        <v>15</v>
+      </c>
+      <c r="AG11" s="29">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="29">
         <v>8</v>
       </c>
-      <c r="AJ11" s="18">
-        <v>1</v>
-      </c>
-      <c r="AK11" s="18">
-        <v>900</v>
-      </c>
-      <c r="AL11" s="18">
+      <c r="AI11" s="29">
+        <v>3</v>
+      </c>
+      <c r="AJ11" s="29">
+        <v>13</v>
+      </c>
+      <c r="AK11" s="29">
+        <v>15</v>
+      </c>
+      <c r="AL11" s="29">
+        <v>918</v>
+      </c>
+      <c r="AM11" s="29">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="29">
+        <v>11</v>
+      </c>
+      <c r="AO11" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR11" s="19">
+        <v>6</v>
+      </c>
+      <c r="AS11" s="29">
+        <v>6</v>
+      </c>
+      <c r="AT11" s="29">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="29">
+        <v>7</v>
+      </c>
+      <c r="AV11" s="29">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="29">
         <v>12</v>
       </c>
-      <c r="AM11" s="18">
-        <v>28</v>
-      </c>
-      <c r="AN11" s="18"/>
-      <c r="AO11" s="18">
-        <v>1</v>
-      </c>
-      <c r="AP11" s="18">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="18">
-        <v>30</v>
-      </c>
-      <c r="AR11" s="18">
-        <v>11</v>
-      </c>
-      <c r="AS11" s="18">
-        <v>1</v>
-      </c>
-      <c r="AT11" s="18">
-        <v>2</v>
-      </c>
-      <c r="AU11" s="18">
-        <v>0</v>
-      </c>
-      <c r="AV11" s="18">
-        <v>921</v>
-      </c>
-      <c r="AW11" s="18">
-        <v>15</v>
-      </c>
-      <c r="AX11" s="18">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="5:50" x14ac:dyDescent="0.25">
+      <c r="AX11" s="29">
+        <v>14</v>
+      </c>
+      <c r="AY11" s="29">
+        <v>928</v>
+      </c>
+      <c r="AZ11" s="29">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="29">
+        <v>6</v>
+      </c>
+      <c r="BB11" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="5:54" x14ac:dyDescent="0.3">
       <c r="E12" s="15">
         <v>7</v>
       </c>
@@ -1734,102 +1799,108 @@
       <c r="O12" s="9">
         <v>9</v>
       </c>
-      <c r="R12" s="20">
+      <c r="R12" s="19">
         <v>7</v>
       </c>
-      <c r="S12" s="19">
-        <v>1</v>
-      </c>
-      <c r="T12" s="19">
-        <v>0</v>
-      </c>
-      <c r="U12" s="19">
+      <c r="S12" s="18">
+        <v>1</v>
+      </c>
+      <c r="T12" s="18">
+        <v>0</v>
+      </c>
+      <c r="U12" s="18">
         <v>31</v>
       </c>
-      <c r="V12" s="19">
+      <c r="V12" s="18">
         <v>13</v>
       </c>
-      <c r="W12" s="19">
+      <c r="W12" s="18">
         <v>5</v>
       </c>
-      <c r="X12" s="19">
-        <v>4</v>
-      </c>
-      <c r="Y12" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="19">
+      <c r="X12" s="18">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="18">
         <v>945</v>
       </c>
-      <c r="AA12" s="19">
+      <c r="AA12" s="18">
         <v>11</v>
       </c>
-      <c r="AB12" s="25">
+      <c r="AB12" s="23">
         <v>30</v>
       </c>
-      <c r="AD12" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="18">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="18">
+      <c r="AC12" s="29"/>
+      <c r="AE12" s="19">
+        <v>7</v>
+      </c>
+      <c r="AF12" s="29">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="29">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="29">
+        <v>35</v>
+      </c>
+      <c r="AI12" s="29">
+        <v>16</v>
+      </c>
+      <c r="AJ12" s="29">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="29">
+        <v>8</v>
+      </c>
+      <c r="AL12" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="29">
+        <v>900</v>
+      </c>
+      <c r="AN12" s="29">
         <v>12</v>
       </c>
-      <c r="AG12" s="18">
-        <v>8</v>
-      </c>
-      <c r="AH12" s="18">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="18">
-        <v>2</v>
-      </c>
-      <c r="AJ12" s="18">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="18">
-        <v>746</v>
-      </c>
-      <c r="AM12" s="18">
-        <v>2</v>
-      </c>
-      <c r="AN12" s="18"/>
-      <c r="AO12" s="18">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="18">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="18">
+      <c r="AO12" s="23">
+        <v>28</v>
+      </c>
+      <c r="AR12" s="19">
+        <v>7</v>
+      </c>
+      <c r="AS12" s="29">
+        <v>1</v>
+      </c>
+      <c r="AT12" s="29">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="29">
+        <v>30</v>
+      </c>
+      <c r="AV12" s="29">
         <v>11</v>
       </c>
-      <c r="AR12" s="18">
-        <v>10</v>
-      </c>
-      <c r="AS12" s="18">
-        <v>0</v>
-      </c>
-      <c r="AT12" s="18">
-        <v>1</v>
-      </c>
-      <c r="AU12" s="18">
-        <v>0</v>
-      </c>
-      <c r="AV12" s="18">
-        <v>0</v>
-      </c>
-      <c r="AW12" s="18">
-        <v>768</v>
-      </c>
-      <c r="AX12" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="5:50" x14ac:dyDescent="0.25">
+      <c r="AW12" s="29">
+        <v>1</v>
+      </c>
+      <c r="AX12" s="29">
+        <v>2</v>
+      </c>
+      <c r="AY12" s="29">
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="29">
+        <v>921</v>
+      </c>
+      <c r="BA12" s="29">
+        <v>15</v>
+      </c>
+      <c r="BB12" s="23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="5:54" x14ac:dyDescent="0.3">
       <c r="E13" s="15">
         <v>8</v>
       </c>
@@ -1863,102 +1934,108 @@
       <c r="O13" s="9">
         <v>1</v>
       </c>
-      <c r="R13" s="20">
+      <c r="R13" s="19">
         <v>8</v>
       </c>
-      <c r="S13" s="19">
-        <v>0</v>
-      </c>
-      <c r="T13" s="19">
-        <v>0</v>
-      </c>
-      <c r="U13" s="19">
+      <c r="S13" s="18">
+        <v>0</v>
+      </c>
+      <c r="T13" s="18">
+        <v>0</v>
+      </c>
+      <c r="U13" s="18">
         <v>9</v>
       </c>
-      <c r="V13" s="19">
+      <c r="V13" s="18">
         <v>12</v>
       </c>
-      <c r="W13" s="19">
-        <v>1</v>
-      </c>
-      <c r="X13" s="19">
-        <v>2</v>
-      </c>
-      <c r="Y13" s="19">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="19">
+      <c r="W13" s="18">
+        <v>1</v>
+      </c>
+      <c r="X13" s="18">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="18">
         <v>806</v>
       </c>
-      <c r="AB13" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="18">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="18">
-        <v>1</v>
-      </c>
-      <c r="AG13" s="18">
+      <c r="AB13" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="29"/>
+      <c r="AE13" s="19">
+        <v>8</v>
+      </c>
+      <c r="AF13" s="29">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="29">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="29">
+        <v>12</v>
+      </c>
+      <c r="AI13" s="29">
+        <v>8</v>
+      </c>
+      <c r="AJ13" s="29">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="29">
+        <v>2</v>
+      </c>
+      <c r="AL13" s="29">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="29">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="29">
+        <v>746</v>
+      </c>
+      <c r="AO13" s="23">
+        <v>2</v>
+      </c>
+      <c r="AR13" s="19">
+        <v>8</v>
+      </c>
+      <c r="AS13" s="29">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="29">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="29">
+        <v>11</v>
+      </c>
+      <c r="AV13" s="29">
         <v>10</v>
       </c>
-      <c r="AH13" s="18">
-        <v>86</v>
-      </c>
-      <c r="AI13" s="18">
-        <v>19</v>
-      </c>
-      <c r="AJ13" s="18">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="18">
-        <v>31</v>
-      </c>
-      <c r="AL13" s="18">
-        <v>30</v>
-      </c>
-      <c r="AM13" s="18">
-        <v>917</v>
-      </c>
-      <c r="AN13" s="18"/>
-      <c r="AO13" s="18">
-        <v>0</v>
-      </c>
-      <c r="AP13" s="18">
-        <v>0</v>
-      </c>
-      <c r="AQ13" s="18">
-        <v>1</v>
-      </c>
-      <c r="AR13" s="18">
-        <v>6</v>
-      </c>
-      <c r="AS13" s="18">
-        <v>79</v>
-      </c>
-      <c r="AT13" s="18">
-        <v>13</v>
-      </c>
-      <c r="AU13" s="18">
-        <v>0</v>
-      </c>
-      <c r="AV13" s="18">
-        <v>28</v>
-      </c>
-      <c r="AW13" s="18">
-        <v>29</v>
-      </c>
-      <c r="AX13" s="18">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="14" spans="5:50" x14ac:dyDescent="0.25">
+      <c r="AW13" s="29">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="29">
+        <v>1</v>
+      </c>
+      <c r="AY13" s="29">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="29">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="29">
+        <v>768</v>
+      </c>
+      <c r="BB13" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="5:54" x14ac:dyDescent="0.3">
       <c r="E14" s="16">
         <v>9</v>
       </c>
@@ -1992,48 +2069,115 @@
       <c r="O14" s="12">
         <v>966</v>
       </c>
-      <c r="R14" s="21">
+      <c r="R14" s="20">
         <v>9</v>
       </c>
-      <c r="S14" s="26">
-        <v>0</v>
-      </c>
-      <c r="T14" s="27">
-        <v>0</v>
-      </c>
-      <c r="U14" s="27">
-        <v>1</v>
-      </c>
-      <c r="V14" s="27">
+      <c r="S14" s="24">
+        <v>0</v>
+      </c>
+      <c r="T14" s="25">
+        <v>0</v>
+      </c>
+      <c r="U14" s="25">
+        <v>1</v>
+      </c>
+      <c r="V14" s="25">
         <v>6</v>
       </c>
-      <c r="W14" s="27">
+      <c r="W14" s="25">
         <v>68</v>
       </c>
-      <c r="X14" s="27">
+      <c r="X14" s="25">
         <v>15</v>
       </c>
-      <c r="Y14" s="27">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="27">
+      <c r="Y14" s="25">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="25">
         <v>26</v>
       </c>
-      <c r="AA14" s="27">
+      <c r="AA14" s="25">
         <v>22</v>
       </c>
-      <c r="AB14" s="28">
+      <c r="AB14" s="26">
         <v>929</v>
       </c>
-    </row>
-    <row r="15" spans="5:50" x14ac:dyDescent="0.25">
+      <c r="AC14" s="29"/>
+      <c r="AE14" s="20">
+        <v>9</v>
+      </c>
+      <c r="AF14" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="25">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="25">
+        <v>10</v>
+      </c>
+      <c r="AJ14" s="25">
+        <v>86</v>
+      </c>
+      <c r="AK14" s="25">
+        <v>19</v>
+      </c>
+      <c r="AL14" s="25">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="25">
+        <v>31</v>
+      </c>
+      <c r="AN14" s="25">
+        <v>30</v>
+      </c>
+      <c r="AO14" s="26">
+        <v>917</v>
+      </c>
+      <c r="AR14" s="20">
+        <v>9</v>
+      </c>
+      <c r="AS14" s="25">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="25">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="25">
+        <v>1</v>
+      </c>
+      <c r="AV14" s="25">
+        <v>6</v>
+      </c>
+      <c r="AW14" s="25">
+        <v>79</v>
+      </c>
+      <c r="AX14" s="25">
+        <v>13</v>
+      </c>
+      <c r="AY14" s="25">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="25">
+        <v>28</v>
+      </c>
+      <c r="BA14" s="25">
+        <v>29</v>
+      </c>
+      <c r="BB14" s="26">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="15" spans="5:54" x14ac:dyDescent="0.3">
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
     </row>
-    <row r="16" spans="5:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:54" x14ac:dyDescent="0.3">
       <c r="R16" s="1"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
@@ -2043,15 +2187,15 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
-      <c r="AO16" t="s">
+      <c r="AQ16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="5:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:43" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
         <v>0</v>
       </c>
-      <c r="R17" t="s">
+      <c r="Q17" t="s">
         <v>3</v>
       </c>
       <c r="T17" s="2"/>
@@ -2065,15 +2209,15 @@
       <c r="AD17" t="s">
         <v>5</v>
       </c>
-      <c r="AO17" t="s">
+      <c r="AQ17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="5:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:43" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
         <v>1</v>
       </c>
-      <c r="R18" t="s">
+      <c r="Q18" t="s">
         <v>4</v>
       </c>
       <c r="T18" s="2"/>
@@ -2088,240 +2232,250 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="5:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:43" x14ac:dyDescent="0.3">
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="5:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:43" x14ac:dyDescent="0.3">
       <c r="R20" s="1"/>
       <c r="T20" s="1"/>
-      <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1"/>
-    </row>
-    <row r="21" spans="5:41" x14ac:dyDescent="0.25">
+      <c r="AL20" s="1"/>
+    </row>
+    <row r="21" spans="5:43" x14ac:dyDescent="0.3">
       <c r="R21" s="1"/>
       <c r="T21" s="1"/>
-      <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
-    </row>
-    <row r="22" spans="5:41" x14ac:dyDescent="0.25">
+      <c r="AG21" s="1"/>
+    </row>
+    <row r="22" spans="5:43" x14ac:dyDescent="0.3">
       <c r="R22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="5:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:43" x14ac:dyDescent="0.3">
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="5:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:43" x14ac:dyDescent="0.3">
       <c r="R24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="5:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:43" x14ac:dyDescent="0.3">
       <c r="R25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26" spans="5:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:43" x14ac:dyDescent="0.3">
       <c r="R26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
     </row>
-    <row r="27" spans="5:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:43" x14ac:dyDescent="0.3">
       <c r="R27" s="1"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
     </row>
-    <row r="28" spans="5:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:43" x14ac:dyDescent="0.3">
       <c r="R28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
     </row>
-    <row r="29" spans="5:41" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:43" x14ac:dyDescent="0.3">
       <c r="R29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
     </row>
-    <row r="30" spans="5:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:43" x14ac:dyDescent="0.3">
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
     </row>
-    <row r="31" spans="5:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:43" x14ac:dyDescent="0.3">
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
     </row>
-    <row r="32" spans="5:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:43" x14ac:dyDescent="0.3">
       <c r="R32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
     </row>
-    <row r="33" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
     </row>
-    <row r="34" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="17:22" x14ac:dyDescent="0.3">
       <c r="R34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
     </row>
-    <row r="35" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="17:22" x14ac:dyDescent="0.3">
       <c r="R35" s="1"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
     </row>
-    <row r="36" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
     </row>
-    <row r="37" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="17:22" x14ac:dyDescent="0.3">
       <c r="R37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
     </row>
-    <row r="38" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
     </row>
-    <row r="39" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="17:22" x14ac:dyDescent="0.3">
       <c r="R39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
     </row>
-    <row r="40" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
     </row>
-    <row r="41" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="17:22" x14ac:dyDescent="0.3">
       <c r="R41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
     </row>
-    <row r="42" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="17:22" x14ac:dyDescent="0.3">
       <c r="R42" s="1"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
     </row>
-    <row r="43" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
     </row>
-    <row r="44" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="17:22" x14ac:dyDescent="0.3">
       <c r="R44" s="1"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
     </row>
-    <row r="45" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
     </row>
-    <row r="46" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="17:22" x14ac:dyDescent="0.3">
       <c r="R46" s="1"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
     </row>
-    <row r="47" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
     </row>
-    <row r="48" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="17:22" x14ac:dyDescent="0.3">
       <c r="R48" s="1"/>
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
     </row>
-    <row r="49" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="17:22" x14ac:dyDescent="0.3">
       <c r="R49" s="1"/>
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
     </row>
-    <row r="50" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
     </row>
-    <row r="51" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="17:22" x14ac:dyDescent="0.3">
       <c r="R51" s="1"/>
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
     </row>
-    <row r="52" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
     </row>
-    <row r="53" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="17:22" x14ac:dyDescent="0.3">
       <c r="R53" s="1"/>
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
       <c r="V53" s="1"/>
     </row>
-    <row r="54" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
     </row>
-    <row r="55" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="17:22" x14ac:dyDescent="0.3">
       <c r="R55" s="1"/>
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
       <c r="V55" s="1"/>
     </row>
-    <row r="56" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
     </row>
-    <row r="57" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="17:22" x14ac:dyDescent="0.3">
       <c r="R57" s="1"/>
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
       <c r="V57" s="1"/>
     </row>
-    <row r="58" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
     </row>
-    <row r="59" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="17:22" x14ac:dyDescent="0.3">
       <c r="R59" s="1"/>
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
     </row>
-    <row r="60" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F5:O14">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="S5:AC14">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="1"/>
-        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="100"/>
         <color theme="0"/>
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S5:AB14">
+  <conditionalFormatting sqref="AF5:AO14">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="1"/>
-        <cfvo type="num" val="30"/>
+        <cfvo type="num" val="200"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS5:BB14">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="150"/>
         <color theme="0"/>
         <color rgb="FFFF0000"/>
       </colorScale>

--- a/Plots/confmatrix_NN.xlsx
+++ b/Plots/confmatrix_NN.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Inge\Documents\GitHub\TTT4275_Classification_Project\Plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBB6596-4903-4EE7-B172-101160085BF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7898ADA-2083-44B8-8693-FC154667FBAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5BB9F2A5-5F85-4EBE-9F0E-DF94768C017C}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{5BB9F2A5-5F85-4EBE-9F0E-DF94768C017C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="IRIS" sheetId="2" r:id="rId1"/>
+    <sheet name="NMIST" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>ER:  0.0369</t>
   </si>
@@ -70,6 +71,84 @@
   </si>
   <si>
     <t>Clustering k=1</t>
+  </si>
+  <si>
+    <t>0.]</t>
+  </si>
+  <si>
+    <t>1.]</t>
+  </si>
+  <si>
+    <t>Training set error rate:  0.0333</t>
+  </si>
+  <si>
+    <t>Verification set error rate:  0.0333</t>
+  </si>
+  <si>
+    <t>ts first 30</t>
+  </si>
+  <si>
+    <t>vs 20 last</t>
+  </si>
+  <si>
+    <t>ts last 30</t>
+  </si>
+  <si>
+    <t>2.]</t>
+  </si>
+  <si>
+    <t>vs: 20 first</t>
+  </si>
+  <si>
+    <t>Training set error rate:  0.0555</t>
+  </si>
+  <si>
+    <t>Verification set error rate:  0.0166</t>
+  </si>
+  <si>
+    <t>ts fist30, vs last20</t>
+  </si>
+  <si>
+    <t>Removed feature 1</t>
+  </si>
+  <si>
+    <t>[30.</t>
+  </si>
+  <si>
+    <t>29.]</t>
+  </si>
+  <si>
+    <t>Verification set error rate:  0.05</t>
+  </si>
+  <si>
+    <t>Removed feature 0</t>
+  </si>
+  <si>
+    <t>28.]</t>
+  </si>
+  <si>
+    <t>Training set error rate:  0.111</t>
+  </si>
+  <si>
+    <t>[20.</t>
+  </si>
+  <si>
+    <t>18.]</t>
+  </si>
+  <si>
+    <t>Verification set error rate:  0.0833</t>
+  </si>
+  <si>
+    <t>Removed feature 3</t>
+  </si>
+  <si>
+    <t>Training set error rate:  0.177</t>
+  </si>
+  <si>
+    <t>20.]</t>
+  </si>
+  <si>
+    <t>Verification set error rate:  0.1</t>
   </si>
 </sst>
 </file>
@@ -239,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -317,6 +396,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -638,11 +723,492 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B817E63-2FB3-4FDB-83D9-1F8AF47F59F7}">
+  <dimension ref="A4:AE32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="5" width="3.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="S4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="2:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="22">
+        <v>0</v>
+      </c>
+      <c r="D6" s="22">
+        <v>1</v>
+      </c>
+      <c r="E6" s="23">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="N6" s="18">
+        <v>30</v>
+      </c>
+      <c r="O6" s="18">
+        <v>0</v>
+      </c>
+      <c r="P6" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18">
+        <v>20</v>
+      </c>
+      <c r="U6" s="18">
+        <v>0</v>
+      </c>
+      <c r="V6" s="18">
+        <v>0</v>
+      </c>
+      <c r="W6" s="18"/>
+    </row>
+    <row r="7" spans="2:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="20">
+        <v>0</v>
+      </c>
+      <c r="C7" s="30">
+        <v>30</v>
+      </c>
+      <c r="D7" s="30">
+        <v>0</v>
+      </c>
+      <c r="E7" s="29">
+        <v>0</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="18">
+        <v>20</v>
+      </c>
+      <c r="I7" s="18">
+        <v>0</v>
+      </c>
+      <c r="J7" s="19">
+        <v>0</v>
+      </c>
+      <c r="K7" s="19"/>
+      <c r="N7" s="18">
+        <v>0</v>
+      </c>
+      <c r="O7" s="18">
+        <v>27</v>
+      </c>
+      <c r="P7" s="18">
+        <v>2</v>
+      </c>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18">
+        <v>0</v>
+      </c>
+      <c r="U7" s="18">
+        <v>19</v>
+      </c>
+      <c r="V7" s="18">
+        <v>0</v>
+      </c>
+      <c r="X7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+    </row>
+    <row r="8" spans="2:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="20">
+        <v>1</v>
+      </c>
+      <c r="C8" s="30">
+        <v>0</v>
+      </c>
+      <c r="D8" s="30">
+        <v>28</v>
+      </c>
+      <c r="E8" s="25">
+        <v>1</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19">
+        <v>0</v>
+      </c>
+      <c r="I8" s="19">
+        <v>18</v>
+      </c>
+      <c r="J8" s="19">
+        <v>0</v>
+      </c>
+      <c r="K8" s="18"/>
+      <c r="N8" s="18">
+        <v>0</v>
+      </c>
+      <c r="O8" s="18">
+        <v>3</v>
+      </c>
+      <c r="P8" s="18">
+        <v>28</v>
+      </c>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18">
+        <v>0</v>
+      </c>
+      <c r="U8" s="18">
+        <v>1</v>
+      </c>
+      <c r="V8" s="18">
+        <v>20</v>
+      </c>
+      <c r="X8" s="18"/>
+      <c r="AE8" s="18"/>
+    </row>
+    <row r="9" spans="2:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="21">
+        <v>2</v>
+      </c>
+      <c r="C9" s="26">
+        <v>0</v>
+      </c>
+      <c r="D9" s="27">
+        <v>2</v>
+      </c>
+      <c r="E9" s="28">
+        <v>29</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19">
+        <v>0</v>
+      </c>
+      <c r="I9" s="19">
+        <v>2</v>
+      </c>
+      <c r="J9" s="19">
+        <v>20</v>
+      </c>
+      <c r="K9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="AE9" s="18"/>
+    </row>
+    <row r="10" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="N10" t="s">
+        <v>21</v>
+      </c>
+      <c r="T10" t="s">
+        <v>22</v>
+      </c>
+      <c r="X10" s="18"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="18"/>
+    </row>
+    <row r="11" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20">
+        <v>30</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>22</v>
+      </c>
+      <c r="J21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>14</v>
+      </c>
+      <c r="N21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>8</v>
+      </c>
+      <c r="J22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>16</v>
+      </c>
+      <c r="N22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>20</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" t="s">
+        <v>31</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>18</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>17</v>
+      </c>
+      <c r="J29" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>14</v>
+      </c>
+      <c r="N29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>19</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30" t="s">
+        <v>32</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" t="s">
+        <v>33</v>
+      </c>
+      <c r="L32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C7:E9">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="3"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C54487B-A889-4956-9D31-E92E5D209DE3}">
   <dimension ref="E2:AX60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="101" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z28" sqref="Z28"/>
+    <sheetView topLeftCell="C1" zoomScale="101" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,7 +1220,8 @@
     <col min="18" max="18" width="4" customWidth="1"/>
     <col min="19" max="19" width="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="28" width="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="28" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:50" x14ac:dyDescent="0.25">
@@ -2117,129 +2684,94 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="5:41" x14ac:dyDescent="0.25">
-      <c r="R24" s="1"/>
-      <c r="T24" s="1"/>
-    </row>
-    <row r="25" spans="5:41" x14ac:dyDescent="0.25">
-      <c r="R25" s="1"/>
-      <c r="T25" s="1"/>
-    </row>
-    <row r="26" spans="5:41" x14ac:dyDescent="0.25">
-      <c r="R26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-    </row>
-    <row r="27" spans="5:41" x14ac:dyDescent="0.25">
-      <c r="R27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-    </row>
-    <row r="28" spans="5:41" x14ac:dyDescent="0.25">
-      <c r="R28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-    </row>
-    <row r="29" spans="5:41" x14ac:dyDescent="0.25">
-      <c r="R29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-    </row>
-    <row r="30" spans="5:41" x14ac:dyDescent="0.25">
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-    </row>
-    <row r="31" spans="5:41" x14ac:dyDescent="0.25">
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-    </row>
     <row r="32" spans="5:41" x14ac:dyDescent="0.25">
-      <c r="R32" s="1"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
     </row>
-    <row r="33" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-    </row>
-    <row r="34" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="R34" s="1"/>
+    <row r="33" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+    </row>
+    <row r="34" spans="16:22" x14ac:dyDescent="0.25">
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
     </row>
-    <row r="35" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="16:22" x14ac:dyDescent="0.25">
       <c r="R35" s="1"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
     </row>
-    <row r="36" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="16:22" x14ac:dyDescent="0.25">
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
     </row>
-    <row r="37" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="16:22" x14ac:dyDescent="0.25">
       <c r="R37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
     </row>
-    <row r="38" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="16:22" x14ac:dyDescent="0.25">
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
     </row>
-    <row r="39" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="16:22" x14ac:dyDescent="0.25">
       <c r="R39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
     </row>
-    <row r="40" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="16:22" x14ac:dyDescent="0.25">
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
     </row>
-    <row r="41" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="16:22" x14ac:dyDescent="0.25">
       <c r="R41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
     </row>
-    <row r="42" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="16:22" x14ac:dyDescent="0.25">
       <c r="R42" s="1"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
     </row>
-    <row r="43" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="16:22" x14ac:dyDescent="0.25">
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
     </row>
-    <row r="44" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="16:22" x14ac:dyDescent="0.25">
       <c r="R44" s="1"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
     </row>
-    <row r="45" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="16:22" x14ac:dyDescent="0.25">
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
     </row>
-    <row r="46" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="16:22" x14ac:dyDescent="0.25">
       <c r="R46" s="1"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
     </row>
-    <row r="47" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="16:22" x14ac:dyDescent="0.25">
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
     </row>
-    <row r="48" spans="17:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="16:22" x14ac:dyDescent="0.25">
       <c r="R48" s="1"/>
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>

--- a/Plots/confmatrix_NN.xlsx
+++ b/Plots/confmatrix_NN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Inge\Documents\GitHub\TTT4275_Classification_Project\Plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7898ADA-2083-44B8-8693-FC154667FBAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75601BB2-E740-453E-BC76-F1919B7DB213}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{5BB9F2A5-5F85-4EBE-9F0E-DF94768C017C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5BB9F2A5-5F85-4EBE-9F0E-DF94768C017C}"/>
   </bookViews>
   <sheets>
     <sheet name="IRIS" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>ER:  0.0369</t>
   </si>
@@ -73,82 +73,82 @@
     <t>Clustering k=1</t>
   </si>
   <si>
-    <t>0.]</t>
-  </si>
-  <si>
-    <t>1.]</t>
-  </si>
-  <si>
-    <t>Training set error rate:  0.0333</t>
-  </si>
-  <si>
-    <t>Verification set error rate:  0.0333</t>
-  </si>
-  <si>
-    <t>ts first 30</t>
-  </si>
-  <si>
-    <t>vs 20 last</t>
-  </si>
-  <si>
-    <t>ts last 30</t>
-  </si>
-  <si>
-    <t>2.]</t>
-  </si>
-  <si>
-    <t>vs: 20 first</t>
-  </si>
-  <si>
-    <t>Training set error rate:  0.0555</t>
-  </si>
-  <si>
-    <t>Verification set error rate:  0.0166</t>
-  </si>
-  <si>
     <t>ts fist30, vs last20</t>
   </si>
   <si>
     <t>Removed feature 1</t>
   </si>
   <si>
-    <t>[30.</t>
-  </si>
-  <si>
-    <t>29.]</t>
-  </si>
-  <si>
-    <t>Verification set error rate:  0.05</t>
-  </si>
-  <si>
-    <t>Removed feature 0</t>
-  </si>
-  <si>
-    <t>28.]</t>
-  </si>
-  <si>
-    <t>Training set error rate:  0.111</t>
-  </si>
-  <si>
-    <t>[20.</t>
-  </si>
-  <si>
-    <t>18.]</t>
-  </si>
-  <si>
-    <t>Verification set error rate:  0.0833</t>
-  </si>
-  <si>
-    <t>Removed feature 3</t>
-  </si>
-  <si>
-    <t>Training set error rate:  0.177</t>
-  </si>
-  <si>
-    <t>20.]</t>
-  </si>
-  <si>
-    <t>Verification set error rate:  0.1</t>
+    <t>ts ER =  3.33%</t>
+  </si>
+  <si>
+    <t>Removed feature 1 &amp; 0</t>
+  </si>
+  <si>
+    <t>ts ER = 11.1%</t>
+  </si>
+  <si>
+    <t>vs ER = 5%</t>
+  </si>
+  <si>
+    <t>vs ER = 8.33%</t>
+  </si>
+  <si>
+    <t>ts ER = 12.2%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Removed feature 1, 0 &amp; 2 </t>
+  </si>
+  <si>
+    <t>Only feature 0</t>
+  </si>
+  <si>
+    <t>Only feature 1</t>
+  </si>
+  <si>
+    <t>ts ER =  17.7%</t>
+  </si>
+  <si>
+    <t>vs ER = 10%</t>
+  </si>
+  <si>
+    <t>ts ER = 37.7%</t>
+  </si>
+  <si>
+    <t>ts ER 45.5%</t>
+  </si>
+  <si>
+    <t>vs ER 33.3%</t>
+  </si>
+  <si>
+    <t>vs ER 41.6%</t>
+  </si>
+  <si>
+    <t>ts ER = 3.33%</t>
+  </si>
+  <si>
+    <t>vs ER = 3.33%</t>
+  </si>
+  <si>
+    <t>ts ER = 5.56%</t>
+  </si>
+  <si>
+    <t>vs ER = 1.67%</t>
+  </si>
+  <si>
+    <t>First 30 samples</t>
+  </si>
+  <si>
+    <t>Last 20 samples</t>
+  </si>
+  <si>
+    <t>Last 30 samples</t>
+  </si>
+  <si>
+    <t>First 20 samples</t>
+  </si>
+  <si>
+    <t>Only feature 2</t>
   </si>
 </sst>
 </file>
@@ -318,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -403,6 +403,17 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -724,475 +735,1174 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B817E63-2FB3-4FDB-83D9-1F8AF47F59F7}">
-  <dimension ref="A4:AE32"/>
+  <dimension ref="A2:AC37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AD22" sqref="AD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="5" width="3.5703125" customWidth="1"/>
+    <col min="2" max="5" width="4" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="10" width="4.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" customWidth="1"/>
+    <col min="12" max="15" width="4" customWidth="1"/>
+    <col min="16" max="16" width="10" customWidth="1"/>
+    <col min="17" max="20" width="4" customWidth="1"/>
+    <col min="23" max="28" width="4.140625" customWidth="1"/>
+    <col min="29" max="29" width="4" customWidth="1"/>
+    <col min="31" max="34" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="22">
+        <v>0</v>
+      </c>
+      <c r="D3" s="22">
+        <v>1</v>
+      </c>
+      <c r="E3" s="23">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="22">
+        <v>0</v>
+      </c>
+      <c r="I3" s="22">
+        <v>1</v>
+      </c>
+      <c r="J3" s="23">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="20">
+        <v>0</v>
+      </c>
+      <c r="C4" s="30">
+        <v>30</v>
+      </c>
+      <c r="D4" s="30">
+        <v>0</v>
+      </c>
+      <c r="E4" s="29">
+        <v>0</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20">
+        <v>0</v>
+      </c>
+      <c r="H4" s="31">
+        <v>20</v>
+      </c>
+      <c r="I4" s="31">
+        <v>0</v>
+      </c>
+      <c r="J4" s="25">
+        <v>0</v>
+      </c>
+      <c r="K4" s="19"/>
+      <c r="U4" s="18"/>
+    </row>
+    <row r="5" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="20">
+        <v>1</v>
+      </c>
+      <c r="C5" s="30">
+        <v>0</v>
+      </c>
+      <c r="D5" s="30">
+        <v>28</v>
+      </c>
+      <c r="E5" s="25">
+        <v>1</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20">
+        <v>1</v>
+      </c>
+      <c r="H5" s="30">
+        <v>0</v>
+      </c>
+      <c r="I5" s="30">
+        <v>18</v>
+      </c>
+      <c r="J5" s="25">
+        <v>0</v>
+      </c>
+      <c r="K5" s="18"/>
+    </row>
+    <row r="6" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="21">
+        <v>2</v>
+      </c>
+      <c r="C6" s="26">
+        <v>0</v>
+      </c>
+      <c r="D6" s="27">
+        <v>2</v>
+      </c>
+      <c r="E6" s="28">
+        <v>29</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="21">
+        <v>2</v>
+      </c>
+      <c r="H6" s="27">
+        <v>0</v>
+      </c>
+      <c r="I6" s="27">
+        <v>2</v>
+      </c>
+      <c r="J6" s="28">
+        <v>20</v>
+      </c>
+      <c r="K6" s="18"/>
+    </row>
+    <row r="7" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="U7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+    </row>
+    <row r="8" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V8" s="18"/>
+      <c r="AC8" s="18"/>
+    </row>
+    <row r="9" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V9" s="18"/>
+      <c r="AC9" s="18"/>
+    </row>
+    <row r="10" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="22">
+        <v>0</v>
+      </c>
+      <c r="D10" s="22">
+        <v>1</v>
+      </c>
+      <c r="E10" s="23">
+        <v>2</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="22">
+        <v>0</v>
+      </c>
+      <c r="I10" s="22">
+        <v>1</v>
+      </c>
+      <c r="J10" s="23">
+        <v>2</v>
+      </c>
+      <c r="V10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18"/>
+    </row>
+    <row r="11" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="20">
+        <v>0</v>
+      </c>
+      <c r="C11" s="31">
+        <v>30</v>
+      </c>
+      <c r="D11" s="31">
+        <v>0</v>
+      </c>
+      <c r="E11" s="32">
+        <v>0</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="20">
+        <v>0</v>
+      </c>
+      <c r="H11" s="31">
+        <v>20</v>
+      </c>
+      <c r="I11" s="31">
+        <v>0</v>
+      </c>
+      <c r="J11" s="32">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="V11" s="18"/>
+    </row>
+    <row r="12" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="20">
+        <v>1</v>
+      </c>
+      <c r="C12" s="31">
+        <v>0</v>
+      </c>
+      <c r="D12" s="31">
+        <v>27</v>
+      </c>
+      <c r="E12" s="32">
+        <v>2</v>
+      </c>
+      <c r="G12" s="20">
+        <v>1</v>
+      </c>
+      <c r="H12" s="31">
+        <v>0</v>
+      </c>
+      <c r="I12" s="31">
+        <v>19</v>
+      </c>
+      <c r="J12" s="32">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="21">
+        <v>2</v>
+      </c>
+      <c r="C13" s="33">
+        <v>0</v>
+      </c>
+      <c r="D13" s="33">
+        <v>3</v>
+      </c>
+      <c r="E13" s="34">
+        <v>28</v>
+      </c>
+      <c r="G13" s="21">
+        <v>2</v>
+      </c>
+      <c r="H13" s="33">
+        <v>0</v>
+      </c>
+      <c r="I13" s="33">
+        <v>1</v>
+      </c>
+      <c r="J13" s="34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="Q18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="22">
+        <v>0</v>
+      </c>
+      <c r="D19" s="22">
+        <v>1</v>
+      </c>
+      <c r="E19" s="23">
+        <v>2</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="22">
+        <v>0</v>
+      </c>
+      <c r="I19" s="22">
+        <v>1</v>
+      </c>
+      <c r="J19" s="23">
+        <v>2</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="M19" s="22">
+        <v>0</v>
+      </c>
+      <c r="N19" s="22">
+        <v>1</v>
+      </c>
+      <c r="O19" s="23">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="R19" s="22">
+        <v>0</v>
+      </c>
+      <c r="S19" s="22">
+        <v>1</v>
+      </c>
+      <c r="T19" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="20">
+        <v>0</v>
+      </c>
+      <c r="C20" s="35">
+        <v>30</v>
+      </c>
+      <c r="D20" s="35">
+        <v>0</v>
+      </c>
+      <c r="E20" s="36">
+        <v>0</v>
+      </c>
+      <c r="G20" s="20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="35">
+        <v>20</v>
+      </c>
+      <c r="I20" s="35">
+        <v>0</v>
+      </c>
+      <c r="J20" s="36">
+        <v>0</v>
+      </c>
+      <c r="L20" s="20">
+        <v>0</v>
+      </c>
+      <c r="M20" s="35">
+        <v>30</v>
+      </c>
+      <c r="N20" s="35">
+        <v>0</v>
+      </c>
+      <c r="O20" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="20">
+        <v>0</v>
+      </c>
+      <c r="R20" s="35">
+        <v>20</v>
+      </c>
+      <c r="S20" s="35">
+        <v>0</v>
+      </c>
+      <c r="T20" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="20">
+        <v>1</v>
+      </c>
+      <c r="C21" s="35">
+        <v>0</v>
+      </c>
+      <c r="D21" s="35">
+        <v>28</v>
+      </c>
+      <c r="E21" s="36">
+        <v>1</v>
+      </c>
+      <c r="G21" s="20">
+        <v>1</v>
+      </c>
+      <c r="H21" s="35">
+        <v>0</v>
+      </c>
+      <c r="I21" s="35">
+        <v>18</v>
+      </c>
+      <c r="J21" s="36">
+        <v>1</v>
+      </c>
+      <c r="L21" s="20">
+        <v>1</v>
+      </c>
+      <c r="M21" s="35">
+        <v>0</v>
+      </c>
+      <c r="N21" s="35">
+        <v>22</v>
+      </c>
+      <c r="O21" s="36">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="20">
+        <v>1</v>
+      </c>
+      <c r="R21" s="35">
+        <v>0</v>
+      </c>
+      <c r="S21" s="35">
         <v>17</v>
       </c>
-      <c r="N4" t="s">
+      <c r="T21" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="21">
+        <v>2</v>
+      </c>
+      <c r="C22" s="37">
+        <v>0</v>
+      </c>
+      <c r="D22" s="37">
+        <v>2</v>
+      </c>
+      <c r="E22" s="38">
+        <v>29</v>
+      </c>
+      <c r="G22" s="21">
+        <v>2</v>
+      </c>
+      <c r="H22" s="37">
+        <v>0</v>
+      </c>
+      <c r="I22" s="37">
+        <v>2</v>
+      </c>
+      <c r="J22" s="38">
+        <v>19</v>
+      </c>
+      <c r="L22" s="21">
+        <v>2</v>
+      </c>
+      <c r="M22" s="37">
+        <v>0</v>
+      </c>
+      <c r="N22" s="37">
+        <v>8</v>
+      </c>
+      <c r="O22" s="38">
+        <v>28</v>
+      </c>
+      <c r="Q22" s="21">
+        <v>2</v>
+      </c>
+      <c r="R22" s="37">
+        <v>0</v>
+      </c>
+      <c r="S22" s="37">
+        <v>3</v>
+      </c>
+      <c r="T22" s="38">
         <v>18</v>
       </c>
-      <c r="O4" s="1"/>
-      <c r="S4" t="s">
+    </row>
+    <row r="23" spans="2:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="22">
+        <v>0</v>
+      </c>
+      <c r="D26" s="22">
+        <v>1</v>
+      </c>
+      <c r="E26" s="23">
+        <v>2</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="22">
+        <v>0</v>
+      </c>
+      <c r="I26" s="22">
+        <v>1</v>
+      </c>
+      <c r="J26" s="23">
+        <v>2</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="M26" s="22">
+        <v>0</v>
+      </c>
+      <c r="N26" s="22">
+        <v>1</v>
+      </c>
+      <c r="O26" s="23">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="R26" s="22">
+        <v>0</v>
+      </c>
+      <c r="S26" s="22">
+        <v>1</v>
+      </c>
+      <c r="T26" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="20">
+        <v>0</v>
+      </c>
+      <c r="C27" s="35">
+        <v>30</v>
+      </c>
+      <c r="D27" s="35">
+        <v>0</v>
+      </c>
+      <c r="E27" s="36">
+        <v>0</v>
+      </c>
+      <c r="G27" s="20">
+        <v>0</v>
+      </c>
+      <c r="H27" s="35">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="2:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="22">
-        <v>0</v>
-      </c>
-      <c r="D6" s="22">
-        <v>1</v>
-      </c>
-      <c r="E6" s="23">
-        <v>2</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="N6" s="18">
+      <c r="I27" s="35">
+        <v>0</v>
+      </c>
+      <c r="J27" s="36">
+        <v>0</v>
+      </c>
+      <c r="L27" s="20">
+        <v>0</v>
+      </c>
+      <c r="M27" s="35">
         <v>30</v>
       </c>
-      <c r="O6" s="18">
-        <v>0</v>
-      </c>
-      <c r="P6" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18">
+      <c r="N27" s="35">
+        <v>0</v>
+      </c>
+      <c r="O27" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="20">
+        <v>0</v>
+      </c>
+      <c r="R27" s="35">
         <v>20</v>
       </c>
-      <c r="U6" s="18">
-        <v>0</v>
-      </c>
-      <c r="V6" s="18">
-        <v>0</v>
-      </c>
-      <c r="W6" s="18"/>
-    </row>
-    <row r="7" spans="2:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="20">
-        <v>0</v>
-      </c>
-      <c r="C7" s="30">
+      <c r="S27" s="35">
+        <v>1</v>
+      </c>
+      <c r="T27" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="20">
+        <v>1</v>
+      </c>
+      <c r="C28" s="35">
+        <v>0</v>
+      </c>
+      <c r="D28" s="35">
+        <v>19</v>
+      </c>
+      <c r="E28" s="36">
+        <v>0</v>
+      </c>
+      <c r="G28" s="20">
+        <v>1</v>
+      </c>
+      <c r="H28" s="35">
+        <v>0</v>
+      </c>
+      <c r="I28" s="35">
+        <v>16</v>
+      </c>
+      <c r="J28" s="36">
+        <v>1</v>
+      </c>
+      <c r="L28" s="20">
+        <v>1</v>
+      </c>
+      <c r="M28" s="35">
+        <v>0</v>
+      </c>
+      <c r="N28" s="35">
+        <v>14</v>
+      </c>
+      <c r="O28" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="20">
+        <v>1</v>
+      </c>
+      <c r="R28" s="35">
+        <v>0</v>
+      </c>
+      <c r="S28" s="35">
+        <v>14</v>
+      </c>
+      <c r="T28" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="21">
+        <v>2</v>
+      </c>
+      <c r="C29" s="37">
+        <v>0</v>
+      </c>
+      <c r="D29" s="37">
+        <v>11</v>
+      </c>
+      <c r="E29" s="38">
         <v>30</v>
       </c>
-      <c r="D7" s="30">
-        <v>0</v>
-      </c>
-      <c r="E7" s="29">
-        <v>0</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="18">
+      <c r="G29" s="21">
+        <v>2</v>
+      </c>
+      <c r="H29" s="37">
+        <v>0</v>
+      </c>
+      <c r="I29" s="37">
+        <v>4</v>
+      </c>
+      <c r="J29" s="38">
+        <v>19</v>
+      </c>
+      <c r="L29" s="21">
+        <v>2</v>
+      </c>
+      <c r="M29" s="37">
+        <v>0</v>
+      </c>
+      <c r="N29" s="37">
+        <v>16</v>
+      </c>
+      <c r="O29" s="38">
+        <v>30</v>
+      </c>
+      <c r="Q29" s="21">
+        <v>2</v>
+      </c>
+      <c r="R29" s="37">
+        <v>0</v>
+      </c>
+      <c r="S29" s="37">
+        <v>5</v>
+      </c>
+      <c r="T29" s="38">
         <v>20</v>
       </c>
-      <c r="I7" s="18">
-        <v>0</v>
-      </c>
-      <c r="J7" s="19">
-        <v>0</v>
-      </c>
-      <c r="K7" s="19"/>
-      <c r="N7" s="18">
-        <v>0</v>
-      </c>
-      <c r="O7" s="18">
+    </row>
+    <row r="30" spans="2:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="18">
-        <v>2</v>
-      </c>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18">
-        <v>0</v>
-      </c>
-      <c r="U7" s="18">
-        <v>19</v>
-      </c>
-      <c r="V7" s="18">
-        <v>0</v>
-      </c>
-      <c r="X7" s="18"/>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-    </row>
-    <row r="8" spans="2:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="20">
-        <v>1</v>
-      </c>
-      <c r="C8" s="30">
-        <v>0</v>
-      </c>
-      <c r="D8" s="30">
+      <c r="L32" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q32" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="25">
-        <v>1</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19">
-        <v>0</v>
-      </c>
-      <c r="I8" s="19">
+    </row>
+    <row r="33" spans="2:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="22">
+        <v>0</v>
+      </c>
+      <c r="D33" s="22">
+        <v>1</v>
+      </c>
+      <c r="E33" s="23">
+        <v>2</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" s="22">
+        <v>0</v>
+      </c>
+      <c r="I33" s="22">
+        <v>1</v>
+      </c>
+      <c r="J33" s="23">
+        <v>2</v>
+      </c>
+      <c r="L33" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="M33" s="22">
+        <v>0</v>
+      </c>
+      <c r="N33" s="22">
+        <v>1</v>
+      </c>
+      <c r="O33" s="23">
+        <v>2</v>
+      </c>
+      <c r="Q33" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="R33" s="22">
+        <v>0</v>
+      </c>
+      <c r="S33" s="22">
+        <v>1</v>
+      </c>
+      <c r="T33" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="20">
+        <v>0</v>
+      </c>
+      <c r="C34" s="35">
+        <v>29</v>
+      </c>
+      <c r="D34" s="35">
+        <v>9</v>
+      </c>
+      <c r="E34" s="36">
+        <v>3</v>
+      </c>
+      <c r="G34" s="20">
+        <v>0</v>
+      </c>
+      <c r="H34" s="35">
+        <v>20</v>
+      </c>
+      <c r="I34" s="35">
+        <v>12</v>
+      </c>
+      <c r="J34" s="36">
+        <v>0</v>
+      </c>
+      <c r="L34" s="20">
+        <v>0</v>
+      </c>
+      <c r="M34" s="35">
+        <v>25</v>
+      </c>
+      <c r="N34" s="35">
+        <v>6</v>
+      </c>
+      <c r="O34" s="36">
+        <v>8</v>
+      </c>
+      <c r="Q34" s="20">
+        <v>0</v>
+      </c>
+      <c r="R34" s="35">
+        <v>17</v>
+      </c>
+      <c r="S34" s="35">
+        <v>2</v>
+      </c>
+      <c r="T34" s="36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="20">
+        <v>1</v>
+      </c>
+      <c r="C35" s="35">
+        <v>0</v>
+      </c>
+      <c r="D35" s="35">
+        <v>0</v>
+      </c>
+      <c r="E35" s="36">
+        <v>0</v>
+      </c>
+      <c r="G35" s="20">
+        <v>1</v>
+      </c>
+      <c r="H35" s="35">
+        <v>0</v>
+      </c>
+      <c r="I35" s="35">
+        <v>0</v>
+      </c>
+      <c r="J35" s="36">
+        <v>0</v>
+      </c>
+      <c r="L35" s="20">
+        <v>1</v>
+      </c>
+      <c r="M35" s="35">
+        <v>5</v>
+      </c>
+      <c r="N35" s="35">
+        <v>24</v>
+      </c>
+      <c r="O35" s="36">
+        <v>33</v>
+      </c>
+      <c r="Q35" s="20">
+        <v>1</v>
+      </c>
+      <c r="R35" s="35">
+        <v>3</v>
+      </c>
+      <c r="S35" s="35">
         <v>18</v>
       </c>
-      <c r="J8" s="19">
-        <v>0</v>
-      </c>
-      <c r="K8" s="18"/>
-      <c r="N8" s="18">
-        <v>0</v>
-      </c>
-      <c r="O8" s="18">
-        <v>3</v>
-      </c>
-      <c r="P8" s="18">
-        <v>28</v>
-      </c>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18">
-        <v>0</v>
-      </c>
-      <c r="U8" s="18">
-        <v>1</v>
-      </c>
-      <c r="V8" s="18">
+      <c r="T35" s="36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="21">
+        <v>2</v>
+      </c>
+      <c r="C36" s="37">
+        <v>1</v>
+      </c>
+      <c r="D36" s="37">
+        <v>21</v>
+      </c>
+      <c r="E36" s="38">
+        <v>27</v>
+      </c>
+      <c r="G36" s="21">
+        <v>2</v>
+      </c>
+      <c r="H36" s="37">
+        <v>0</v>
+      </c>
+      <c r="I36" s="37">
+        <v>8</v>
+      </c>
+      <c r="J36" s="38">
         <v>20</v>
       </c>
-      <c r="X8" s="18"/>
-      <c r="AE8" s="18"/>
-    </row>
-    <row r="9" spans="2:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21">
-        <v>2</v>
-      </c>
-      <c r="C9" s="26">
-        <v>0</v>
-      </c>
-      <c r="D9" s="27">
-        <v>2</v>
-      </c>
-      <c r="E9" s="28">
-        <v>29</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19">
-        <v>0</v>
-      </c>
-      <c r="I9" s="19">
-        <v>2</v>
-      </c>
-      <c r="J9" s="19">
-        <v>20</v>
-      </c>
-      <c r="K9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="AE9" s="18"/>
-    </row>
-    <row r="10" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="N10" t="s">
+      <c r="L36" s="21">
+        <v>2</v>
+      </c>
+      <c r="M36" s="37">
+        <v>0</v>
+      </c>
+      <c r="N36" s="37">
+        <v>0</v>
+      </c>
+      <c r="O36" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="21">
+        <v>2</v>
+      </c>
+      <c r="R36" s="37">
+        <v>0</v>
+      </c>
+      <c r="S36" s="37">
+        <v>0</v>
+      </c>
+      <c r="T36" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>21</v>
       </c>
-      <c r="T10" t="s">
+      <c r="G37" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" t="s">
         <v>22</v>
       </c>
-      <c r="X10" s="18"/>
-      <c r="AD10" s="18"/>
-      <c r="AE10" s="18"/>
-    </row>
-    <row r="11" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" t="s">
-        <v>28</v>
-      </c>
-      <c r="L18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20">
-        <v>30</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>28</v>
-      </c>
-      <c r="E21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
+      <c r="Q37" t="s">
         <v>22</v>
       </c>
-      <c r="J21" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>14</v>
-      </c>
-      <c r="N21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>8</v>
-      </c>
-      <c r="J22" t="s">
-        <v>29</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>16</v>
-      </c>
-      <c r="N22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>30</v>
-      </c>
-      <c r="L25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C28">
-        <v>20</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" t="s">
-        <v>31</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" t="s">
-        <v>31</v>
-      </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-      <c r="N28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>18</v>
-      </c>
-      <c r="E29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>17</v>
-      </c>
-      <c r="J29" t="s">
-        <v>19</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>14</v>
-      </c>
-      <c r="N29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30">
-        <v>19</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>3</v>
-      </c>
-      <c r="J30" t="s">
-        <v>32</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>5</v>
-      </c>
-      <c r="N30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" t="s">
-        <v>33</v>
-      </c>
-      <c r="L32" t="s">
-        <v>37</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C7:E9">
+  <conditionalFormatting sqref="C4:E6">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="3"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:J6">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="3"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:E13">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="3"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="3"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="3"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11:J13">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="3"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:E22">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="3"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M20:O22">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="15"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M27:O29">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="25"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20:J22">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="3"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R20:T22">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="3"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R27:T29">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="3"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:E29">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="25"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27:J29">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="7"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:E36">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="25"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34:J36">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="20"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M34:O36">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="25"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R34:T36">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="num" val="3"/>
+        <cfvo type="num" val="15"/>
         <color theme="0"/>
         <color rgb="FFFF0000"/>
       </colorScale>
